--- a/Sequences.xlsx
+++ b/Sequences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Desktop\Cours\STAGE M2\Données 2023\Concarneau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687A216F-9C33-4FF9-9A56-BF2D7622658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6560A866-32D1-4B15-BC1E-8AD7DFA5DD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>Sequence</t>
   </si>
   <si>
-    <t>OPG_117_TS04253722_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>34.8%</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>TCTAAGAATATTAATTCGTGCAGAATTGGGCCAACCAGGTAGATTAATTGGAGATGACCAAATTTATAACGTAATCGTGACAGCTCATGCCTTCATTATAATTTTTTTTATAGTAATACCTATTATAATTGGAGGGTTTGGGAATTGACTTTTACCTCTAATATTAGGAGCACCTGATATAGCATTTCCTCGACTTAATAATATAAGATTTTGGTTACTACCCCCTGCTCTTATATTATTAATTAGAGGTTCTCTAGTAGAAGCCGGAGCTGGAACAGGATGAACTGTGTATCCTCCTCTTTCTAGAAATATTGCTCACTCAGGAGCTTCTGTTGATTTATCTATTTTTTCTCTTCACCTTGCAGGGGCCTCTTCTATTTTAGGAGCTATTAACTTTATATCCACAGTTATTAATATGCGAAGAGAAACTTTAACTTTTGATCGTCTTCCCTTATTTGTTTGAAGAGTATTTGTAACTGTTATTTTACTTCTTTTATCTCTTCCAGTATTAGCGGGGGCTATTACTATATTATTAACTGACCGGAACTTAAACACTTCTTTTTTTGACCCAACAGGTGGAGGGGATCCTATTCTTTATCAGCATTTATTC</t>
   </si>
   <si>
-    <t>OPG_118_TS04242451_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>36.1%</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
     <t>AGCTTGGTCAGCTATAGTTGGAACAGCTTTAAGAATACTTATTCGAGCCGAATTAGGGCAACCTGGAAGTTTAATTGGTGATGATCAAATCTACAATGTTATTGTTACAGCACATGCCTTTATCATAATTTTCTTTATAGTTATACCTATTATAATTGGAGGTTTTGGAAACTGACTACTACCGCTAATACTTGGAGCACCAGATATGGCTTTCCCTCGACTTAATAATATAAGTTTTTGACTTTTACCTCCAGCTCTTATACTATTAATTAGAGGATCTTTAGTTGAAGCAGGGGCAGGAACAGGATGAACAGTATACCCTCCTCTTTCTAGAAATATCGCTCACTCAGGTGCTTCAGTTGATTTATCTATTTTCTCTTTACATTTAGCTGGAGCTTCCTCAATTTTAGGAGCCATTAATTTTATATCAACGGTTATTAATATACGAGCTGAAACTCTCACATTCGATCGACTCCCTCTTTTCGTGTGAAGCGTATTTATTACAGTTATTCTTTTACTCCTTTCATTACCTGTGTTGGCCGGAGCAATTACAATATTACTTACAGATCGAAATTTAAATACCTCATTTTTTGACCCTACAGGTGGAGGAGATCCAATTCTTTA</t>
   </si>
   <si>
-    <t>OPG_119_TS04242452_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>35.7%</t>
   </si>
   <si>
@@ -67,9 +58,6 @@
     <t>TCAGCTATAGTTGGAACAGCTTTAAGAATACTTATTCGAGCCGAATTAGGGCAACCTGGAAGTTTAATTGGTGATGATCAAATCTACAATGTTATTGTTACAGCACATGCCTTTATCATAATTTTCTTTATAGTTATACCTATTATAATTGGAGGTTTTGGAAACTGACTACTCCCACTAATACTTGGAGCACCAGATATGGCTTTCCCTCGACTTAATAATATAAGTTTTTGACTTTTACCTCCAGCTCTTATACTATTAATTAGAGGATCTTTAGTTGAAGCAGGGGCAGGAACAGGATGAACAGTATACCCTCCTCTTTCTAGAAATATCGCTCACTCAGGTGCTTCAGTTGATTTATCTATTTTCTCTTTACATTTAGCTGGAGCTTCCTCAATTTTAGGGGCCATTAATTTTATATCAACGGTTATTAATATACGAGCTGAAACTCTTACATTCGATCGACTCCCTCTTTTCGTGTGAAGCGTATTTATTACAGTTATTCTTTTACTCCTTTCATTACCTGTGTTGGCCGGAGCAATTACAATATTACTTACAGATCGAAATTTAAATACCTCCTTTTTTGACCCTACAGGTGGAGGAGATCCAATTCTTTACCAACATTTATTT</t>
   </si>
   <si>
-    <t>OPG_120_TS04242453_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>35.9%</t>
   </si>
   <si>
@@ -82,9 +70,6 @@
     <t>TGATCTGCTATAGTTGGAACTGCTTTAAGAATACTTATTCGAGCTGAGCTAGGTCAACCTGGAAGTCTAATTGGTGACGACCAAATTTACAATGTAATTGTTACAGCCCACGCTTTCATTATGATTTTTTTTATAGTAATGCCTATTATAATTGGGGGATTTGGAAATTGACTTTTACCATTAATGTTAGGTGCCCCAGATATAGCTTTTCCTCGATTAAATAATATAAGTTTTTGACTTTTACCTCCAGCTCTTATATTATTAATTAGAGGATCATTGGTTGAAGCAGGAGCAGGTACCGGATGAACAGTGTACCCTCCCCTGTCTAGAAATATTGCTCACTCAGGAGCGTCAGTAGATCTCTCTATTTTTTCTCTACATTTGGCTGGGGCTTCATCAATTTTAGGAGCTATTAATTTTATGTCAACAGTAATTAATATACGAGCTGAAACGCTAACGTTTGATCGTTTACCTTTATTCGTTTGAAGAGTATTTATTACAGTAATTCTATTACTTTTATCTCTTCCTGTTTTAGCTGGAGCAATTACTATGTTATTAACAGATCGAAATTTAAATACTTCGTTCTTTGACCCTACGGGGGGAGGGGACCCAATTCTTTACCAACACCTATTT</t>
   </si>
   <si>
-    <t>OPG_121_TS04242454_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>35.3%</t>
   </si>
   <si>
@@ -94,9 +79,6 @@
     <t>TGCTTGGTCAGCTATAGTTGGGACTGCTCTAAGAATATTAATTCGTGCAGAATTAGGTCAACCAGGTAGATTAATTGGAGATGACCAAATTTATAACGTAATCGTGACAGCTCATGCCTTCATTATAATTTTTTTTATAGTAATACCTATTATAATTGGAGGGTTTGGGAATTGACTTTTACCTCTAATATTAGGAGCACCTGATATAGCATTTCCTCGACTTAATAATATAAGATTTTGGTTACTGCCCCCGGCTCTTATATTATTAATTAGAGGTTCTCTAGTAGAAGCTGGAGCTGGAACAGGATGAACTGTGTATCCTCCTCTTTCTAGAAATATTGCTCACTCAGGAGCTTCTGTTGATTTATCTATTTTTTCTCTTCACCTTGCAGGGGCCTCTTCTATTTTAGGAGCTATTAACTTTATATCCACAGTTATTAATATGCGAAGAGAAACTTTAACTTTTGATCGTCTTCCCTTATTTGTTTGAAGAGTATTTGTAACTGTTATTTTACTTCTTTTATCTCTTCCAGTATTAGCGGGGGCTATTACTATATTATTAACTGACCGGAACTTAAACACTTCTTTTTTTGACCCAACAGGTGGAGGGGATCCTATTCTTTATCAGCATTTATTC</t>
   </si>
   <si>
-    <t>OPG_122_TS04242455_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>35.6%</t>
   </si>
   <si>
@@ -106,18 +88,12 @@
     <t>AATACTTATTCGAGCCGAATTAGGGCAACCTGGAAGTTTAATTGGTGATGATCAAATCTACAATGTTATTGTTACAGCACATGCCTTTATCATAATTTTCTTTATAGTTATACCTATTATAATTGGAGGTTTTGGAAACTGACTACTCCCGCTAATACTTGGAGCACCAGATATGGCTTTCCCTCGACTTAACAATATAAGTTTTTGACTTTTACCTCCAGCTCTTATACTATTAATTAGAGGATCTTTAGTTGAAGCAGGGGCAGGAACAGGATGAACAGTATACCCTCCTCTTTCTAGAAATATCGCTCACTCAGGTGCTTCAGTTGATTTATCTATTTTCTCTTTACATTTAGCTGGAGCTTCCTCAATTTTAGGAGCCATTAATTTTATATCAACGGTTATTAATATACGAGCTGAAACTCTTACATTCGATCGACTCCCTCTTTTCGTGTGAAGCGTATTTATTACAGTTATTCTTTTACTCCTTTCATTACCTGTGTTGGCCGGAGCAATTACAATATTACTTACAGATCGAAATTTAAATACCTCATTTTTTGACCCTACAGGTGGAGGAGATCCAATTCTTTACCAACATTTATTT</t>
   </si>
   <si>
-    <t>OPG_123_TS04242456_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>93.6%</t>
   </si>
   <si>
     <t>CTGCTATAGTTGGAACTGCTTTAAGAATACTTATTCGAGCTGAGCTAGGTCAACCTGGAAGTCTAATTGGTGACGACCAAATTTACAATGTAATTGTTACAGCCCACGCTTTCATTATGATTTTTTTTATAGTAATGCCTATTATAATTGGGGGATTTGGAAATTGACTTTTACCATTAATGTTAGGTGCCCCAGATATAGCTTTTCCTCGATTAAATAATATAAGTTTTTGACTTTTACCTCCAGCTCTTATATTATTAATTAGAGGATCATTGGTTGAAGCAGGAGCAGGTACCGGATGAACAGTGTACCCTCCCCTGTCTAGAAATATTGCTCACTCAGGAGCGTCAGTAGATCTCTCTATTTTTTCTCTACATTTGGCTGGGGCTTCATCAATTTTAGGAGCTATTAATTTTATATCAACAGTAATTAATATACGAGCTGAGACGCTAACGTTTGATCGTTTACCTTTATTCGTTTGAAGAGTATTTATTACAGTAATTCTATTACTTTTATCTCTTCCTGTTCTAGCTGGAGCAATTACTATGTTATTAACAGATCGAAATTTAAATACTTCGTTCTTTGACCCTACGGGGGGAGGGGACCCAATTCTTTACCAACACCTATTT</t>
   </si>
   <si>
-    <t>OPG_124_TS04242457_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>36.2%</t>
   </si>
   <si>
@@ -127,9 +103,6 @@
     <t>AGCATGATCTGCTATAGTTGGGACTGCTTTAAGAATACTTATTCGAGCTGAGCTAGGTCAACCTGGAAGTCTAATTGGTGACGACCAAATTTACAATGTAATTGTAACAGCCCACGCTTTCATTATGATTTTTTTTATAGTAATGCCTATTATAATTGGGGGATTTGGAAATTGACTTTTACCATTAATGTTAGGTGCCCCAGATATAGCTTTTCCTCGATTAAATAATATAAGTTTTTGACTTTTACCTCCAGCTCTTATATTATTAATTAGAGGATCATTGGTTGAAGCAGGAGCAGGTACCGGATGAACAGTGTACCCTCCCCTGTCTAGAAATATTGCTCACTCAGGAGCGTCAGTAGATCTCTCTATTTTTTCTCTACATTTGGCTGGGGCTTCATCAATTTTAGGAGCTATTAATTTTATATCAACAGTAATTAATATACGAGCTGAGACGCTAACGTTTGATCGTTTACCTTTATTCGTTTGAAGAGTATTTATTACAGTAATTCTATTACTTTTATCTCTTCCTGTTCTAGCTGGAGCAATTACTATGTTATTAACAGATCGAAATTTAAATACTTCGTTCTTTGACCCTACGGGGGGAGGGGACCCAATTCTTTA</t>
   </si>
   <si>
-    <t>OPG_125_TS04242458_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>35.8%</t>
   </si>
   <si>
@@ -142,9 +115,6 @@
     <t>AGCTTGATCTGCAATAGTTGGAACAGCTCTAAGAATATTAATTCGAGCTGAATTAGGACAACCTGGAAGTTTAATTGGAGATGACCAAATTTATAATGTTATTGTTACAGCTCACGCTTTTATTATAATTTTTTTTATAGTTATACCAATTATAATTGGAGGATTCGGAAACTGACTTCTACCTCTAATACTAGGAGCCCCTGATATGGCTTTCCCTCGACTTAATAATATAAGTTTTTGACTACTCCCCCCAGCTTTAATGCTGTTAATTAGAGGGTCCTTAGTAGAAGCAGGAGCAGGAACAGGTTGAACAGTCTACCCTCCTCTATCAAGTAATATCGCCCATTCGGGTGCTTCAGTCGATCTTTCAATTTTTTCTTTGCATTTAGCTGGAGCTTCTTCAATTTTAGGTGCAATTAACTTTATATCAACAGTAATTAATATACGAGCTGAGACACTAACATTTGACCGTCTTCCATTATTTGTATGAAGAGTATTTATCACTGTAATTTTACTGTTACTATCTCTTCCAGTTCTTGCAGGAGCTATCACTATACTTCTTACTGATCGAAATTTAAATACTTCTTTCTTTGACCCTACTGGGGGTGGAGACCCTATCTTATACCAACATTTATTT</t>
   </si>
   <si>
-    <t>OPG_126_TS04253714_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>36.4%</t>
   </si>
   <si>
@@ -157,9 +127,6 @@
     <t>CCTAAGTTTGTTAATTCGTGCAGAATTAGGACAACCTGGAAGATTGATTGGGGATGATCAAATCTACAATGTAATTGTCACTGCTCACGCTTTTATTATAATTTTTTTTATGGTTATGCCAATTATGATTGGGGGGTTTGGAAATTGATTATTGCCTTTGATATTAGGAGCTCCTGATATAGCTTTCCCTCGTTTAAATAATATGAGATTTTGACTTCTTCCTCCTGCGTTAATACTTTTGATTAGAGGTTCACTAGTAGAGGCTGGGGCTGGGACTGGGTGAACAGTTTATCCCCCTCTGTCAAGTAACATTGCTCATTCGGGGGCTTCTGTAGATCTTTCTATTTTTTCGTTACATTTAGCTGGGGCTTCTTCTATTTTGGGGGCTATTAATTTCATGTCTACCGTGATTAATATACGAGCTGAAACTTTAACTTTTGATCGGATTCCTTTATTTGTTTGAAGAGTTTTTGTAACAGTGATTCTTCTTCTTCTTTCTCTACCTGTATTAGCAGGAGCAATTACAATGTTATTGACGGATCGAAATTTAAATACTTCTTTTTTTGATCCAACAGGAGGAGGAGATCCTATTTTATACCAACACTTGTTT</t>
   </si>
   <si>
-    <t>OPG_126_TS04253723_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>37.2%</t>
   </si>
   <si>
@@ -190,9 +157,6 @@
     <t>LCO1490</t>
   </si>
   <si>
-    <t>12.1_Penilia_TS03703274_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>41.2%</t>
   </si>
   <si>
@@ -202,9 +166,6 @@
     <t>GATTTGATCTGGGTATGGTAGGTACTGCTTTAAGAATGCTAATCCGAGCTGAACTAGGACAATGTGGAAGAGTAATTGGTGATGAGCAGATTTACAACGTTGTAGTAACAGCTCATGCCTTTGTTATGATTTTCTTTATGGTCATACCAATTTTAATTGGGGGGTTTGGGAACTGATTGGTTCCTTTAATGCTCGGGGCTCCTGATATGGCTTTTCCTCGTTTGAATAATTTAAGATTTTGGCTTCTGCCTCCTTCTTTAACATTGCTTTTAGTAGGGAGAGCTGTTGAAAGAGGTGCTGGCACAGGATGAACCGTTTATCCTCCTTTATCAAGAACAATCGCCCACGCGGGTGCTTCTGTAGATCTTAGAATCTTCTCCTTGCATTTAGCGGGGATTTCATCAATCCTCGGAGCTGTAAACTTTATTACGACAATTGTAAATATACGATCTAAAGGAATAACTTTAGATCGTATTCCCCTCTTTGTGTGGGCTGTTGGAATTACTGCTTTATTACTCCTACTTAGACTTCCTGTACTTGCAGGAGCTATCACTATGCTTCTGACAGACCGAAACTTAAATACTTCTTTCTTTGATCCTGCGGGAGGGGGGGACCCTATTCTTTATCAACACTTGTTC</t>
   </si>
   <si>
-    <t>12.3_Penilia_TS03703275_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>40.4%</t>
   </si>
   <si>
@@ -214,9 +175,6 @@
     <t>CTTTATTTATTTTTGGGATTTGATCTGGGTATGGTAGGTACTGCTTTAAGAATGCTAATCCGAGCTGAACTAGGACAATGTGGAAGAGTAATTGGTGATGAGCAGATTTACAACGTTGTAGTAACAGCTCATGCCTTTGTTATGATTTTCTTTATGGTCATACCAATTTTAATTGGGGGGTTTGGGAACTGATTGGTTCCTTTAATGCTCGGGGCTCCTGATATGGCTTTTCCTCGTTTGAATAATTTAAGATTTTGGCTTCTGCCTCCTTCTTTAACATTGCTTTTAGTAGGGAGAGCTGTTGAAAGAGGTGCTGGTACAGGATGAACCGTTTATCCTCCTTTATCAAGAACAATCGCCCACGCGGGTGCTTCTGTAGATCTTAGAATCTTCTCCTTGCATTTAGCGGGGATTTCATCAATCCTCGGAGCTGTAAACTTTATTACGACAATTGTAAATATACGATCTAAAGGAATAACTTTAGATCGTATTCCCCTCTTTGTGTGGGCTGTTGGAATTACTGCTTTATTACTCCTACTTAGACTTCCTGTACTTGCAGGAGCTATCACTATGCTTCTGACAGACCGAAATTTAAATACTTCTTTCTTTGATCCTGCGGGAGGGGGGGACCCTATTCTTTATCAACACTTGTTC</t>
   </si>
   <si>
-    <t>12.3_TS04253727_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>40.9%</t>
   </si>
   <si>
@@ -226,18 +184,12 @@
     <t>ATGGTAGGTACTGCTTTAAGAATGCTAATCCGAGCTGAACTAGGACAATGTGGAAGAGTAATTGGTGATGAGCAGATTTACAACGTTGTAGTAACAGCTCATGCCTTTGTTATGATTTTCTTTATGGTCATACCAATTTTAATTGGGGGGTTTGGGAACTGATTGGTTCCTTTAATGCTCGGGGCTCCTGATATGGCTTTTCCTCGTTTGAATAATTTAAGATTTTGGCTTCTGCCTCCTTCTTTAACATTGCTTTTAGTAGGGAGAGCTGTTGAAAGAGGTGCTGGTACAGGATGAACCGTTTATCCTCCTTTATCAAGAACAATCGCCCACGCGGGTGCTTCTGTAGATCTTAGAATCTTCTCCTTGCATTTAGCGGGGATTTCATCAATCCTCGGAGCTGTAAACTTTATTACGACAATTGTAAATATACGATCTAAAGGAATAACTTTAGATCGTATTCCCCTCTTTGTGTGGGCTGTTGGAATTACTGCTTTATTACTCCTACTTAGACTTCCTGTACTTGCAGGAGCTATCACTATGCTTCTGACAGACCGAAATTTAAATACTTCTTTCTTTGATCCTGCGGGAGGGGGGGACCCTATTCTTTATCAACACTTGTTC</t>
   </si>
   <si>
-    <t>12.7_Penilia_TS03703276_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>97.5%</t>
   </si>
   <si>
     <t>GATTTGATCTGGGTATGGTAGGTACTGCTTTAAGAATGCTAATCCGAGCTGAACTAGGACAATGTGGAAGAGTAATTGGTGATGAGCAGATTTACAACGTTGTAGTAACAGCTCATGCCTTTGTTATGATTTTCTTTATGGTCATACCAATTTTAATTGGGGGGTTTGGGAACTGATTGGTTCCTTTAATGCTCGGGGCTCCTGATATGGCTTTTCCTCGTTTGAATAATTTAAGATTTTGGCTTCTGCCTCCTTCTTTAACATTGCTTTTAGTAGGGAGAGCTGTTGAAAGAGGTGCTGGTACAGGATGAACCGTTTATCCTCCTTTATCAAGAACAATCGCCCACGCGGGTGCTTCTGTAGATCTTAGAATCTTCTCCTTGCATTTAGCGGGGATTTCATCAATCCTCGGAGCTGTAAACTTTATTACGACAATTGTAAATATACGATCTAAAGGAATAACTTTAGATCGTATTCCCCTCTTTGTGTGGGCTGTTGGAATTACTGCTTTATTACTCCTACTTAGACTTCCTGTACTTGCAGGAGCTATCACTATGCTTCTGACAGACCGAAATTTAAATACTTCTTTCTTTGATCCTGCGGGAGGGGGGGACCCTATTCTTTATCAACACTTGTTC</t>
   </si>
   <si>
-    <t>1.2_Euterpe_R_TS03703318_HCO_2198.ab1</t>
-  </si>
-  <si>
     <t>43.7%</t>
   </si>
   <si>
@@ -250,9 +202,6 @@
     <t>CCCCTCCAGAGGGGTCGTAGAATCTACTATTTAAGTTTCGGTCTGTCAAAAGCATGGTGATGGCCCCTGCCAGTACTGGGAGAGATAGGAGTAATAAAATAGCAGTGATAAAAATAGATCATACAAATAGAGGTATGCAGTCAGACTCTATCCCAAGAACTCGTAAATTTAGGATTGTGGAGATGAAGTTTACAGCTCCTAGAAGGGAGGAAATCCCGGCCAAGTGTAGAGAAAAGATAGCCAAATCTACAGACACCCCCTCATGGCTTAAAAGCCTCCTCAGCGGGGGGTACACAGTCCATCCTGTGCCGGCTCCTTGCTCTACTATTCTTCTTAAAAGCAGTAAGAATATGGCAGGTATTAAAAACCAAAACCTTATGTTATTTAACCGGGGGAAAGCTATATCTGCTCTTCCTAGTATTAAAGGAACGAGTCAATTTCCAAATCCGCCAATCATAACTGGCATGACTATGAAAAAAATCATAATAAAAGCGTGAGCAGTGACTACAGTGTTGTATAACTGGCCCCTGAAGAGAAAGGACCCAGGCTGGCCCAGCTCCGTCCGAATTAGTATTCTCAGGCTTGACCCTACTATTCCTAATCAAGCCCCTGCTATAAAATACAGGGTT</t>
   </si>
   <si>
-    <t>1.2_Euterpe_TS03703306_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>44.1%</t>
   </si>
   <si>
@@ -262,9 +211,6 @@
     <t>GCTTGATTAGGATAGTAGGGTCAAGCCTGAGAATACTAATTCGGACGGAGCTGGGCCAGCCTGGGTCCTTTCTCTTCAGGGGCCAGTTATACAACACTGTAGTCACTGCTCACGCTTTTATTATGATTTTTTTCATAGTCATGCCAGTTATGATTGGCGGATTTGGAAATTGACTCGTTCCTTTAATACTAGGAAGAGCAGATATAGCTTTCCCCCGGTTAAATAACATAAGGTTTTGGTTTTTAATACCTGCCATATTCTTACTGCTTTTAAGAAGAATAGTAGAGCAAGGAGCCGGCACAGGATGGACTGTGTACCCCCCGCTGAGGAGGCTTTTAAGCCATGAGGGGGTGTCTGTAGATTTGGCTATCTTTTCTCTACACTTGGCCGGGATTTCCTCCCTTCTAGGAGCTGTAAACTTCATCTCCACAATCCTAAATTTACGAGTTCTTGGGATAGAGTCTGACTGCATACCTCTATTTGTATGATCTATTTTTATCACTGCTATTTTATTACTCCTATCTCTCCCAGTACTGGCAGGGGCCATCACCATGCTTTTGACAGACCGAAACTTAAATAGTAGATTCTACGACCCCTCTGGAGGGGGAGACCCTATCCTCTACCAGCACTTGTTT</t>
   </si>
   <si>
-    <t>1.5_Euterpe_R_TS03703319_HCO_2198.ab1</t>
-  </si>
-  <si>
     <t>43.8%</t>
   </si>
   <si>
@@ -274,15 +220,9 @@
     <t>CCCCCTCCAGAGGGGTCGTAGAATCTACTATTTAAGTTTCGGTCTGTCAAAAGCATGGTGATGGCCCCTGCCAGTACTGGGAGAGATAGGAGTAATAAAATAGCAGTGATAAAAATAGATCATACAAATAGAGGTATGCAGTCAGACTCTATCCCAAGAACTCGTAAATTTAGGATTGTGGAGATGAAGTTTACAGCTCCTAGAAGGGAGGAAATCCCGGCCAAGTGTAGAGAAAAGATAGCCAAATCTACAGACACCCCCTCATGGCTTAAAAGCCTCCTCAGCGGGGGGTACACAGTCCATCCTGTGCCGGCTCCTTGCTCTACTATTCTTCTTAAAAGCAGTAAGAATATGGCAGGTATTAAAAACCAAAACCTTATGTTATTTAACCGGGGGAAAGCTATATCTGCTCTTCCTAGTATTAAAGGAACGAGTCAATTTCCAAATCCGCCAATCATAACTGGCATGACTATGAAAAAAATCATAATAAAAGCGTGAGCAGTGACTACAGTGTTGTATAACTGGCCCCTGAAGAGAAAGGACCCAGGCTGGCCCAGCTCCGTCCGAATTAGTATTCTCAGGCTTGACCCTACTATTCCTAATCAAGCCCCTGCTATAAAATACAGGGTT</t>
   </si>
   <si>
-    <t>1.5_Euterpe_TS03703307_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>95.0%</t>
   </si>
   <si>
-    <t>1.9_E.acutifrons_TS03703246_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>44.2%</t>
   </si>
   <si>
@@ -292,18 +232,12 @@
     <t>GGGGCTTGAATTAGGAATAGTAGGGTCAAGCCTGAGAATACTAATTCGGACGGAGCTGGGCCAGCCTGGGTCCTTTCTCTTCAGGGGCCAGTTATACAACACTGTAGTCACTGCTCACGCTTTTATTATGATTTTTTTCATAGTCATGCCAGTTATGATTGGCGGATTTGGAAATTGACTCGTTCCTTTAATACTAGGAAGAGCAGATATAGCTTTCCCCCGGTTAAATAACATAAGGTTTTGGTTTTTAATACCTGCCATATTCTTACTGCTTTTAAGAAGAATAGTAGAGCAAGGAGCCGGCACAGGATGGACTGTGTACCCCCCGCTGAGGAGGCTTTTAAGCCATGAGGGGGTGTCTGTAGATTTGGCTATCTTTTCTCTACACTTGGCCGGGATTTCCTCCCTTCTAGGAGCTGTAAACTTCATCTCCACAATCCTAAATTTACGAGTTCTTGGGATAGAGTCTGACTGCATACCTCTATTTGTATGATCTATTTTTATCACTGCTATTTTATTACTCCTATCTCTCCCAGTACTGGCAGGGGCCATCACCATGCTTTTGACAGACCGAAACTTAAATAGTAGATTCTACGACCCCTCTGGAGGGGGAGACCCTATCCTCTACCAGCACTTGTTT</t>
   </si>
   <si>
-    <t>1.17_E.acutifrons_TS03703247_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>44.3%</t>
   </si>
   <si>
     <t>GGGGCTTGATTAGGAATAGTAGGGTCAAGCCTGAGAATACTAATTCGGACGGAGCTGGGCCAGCCTGGGTCCTTTCTCTTCAGGGGCCAGTTATACAACACTGTAGTCACTGCTCACGCTTTTATTATGATTTTTTTCATAGTCATGCCAGTTATGATTGGCGGATTTGGAAATTGACTCGTTCCTTTAATACTAGGAAGAGCAGATATAGCTTTTCCCCGGTTAAATAACATAAGGTTTTGGTTTTTAATACCTGCCATATTCTTACTGCTTTTAAGAAGAATAGTAGAGCAAGGAGCCGGCACAGGATGGACTGTGTACCCCCCGCTGAGGAGGCTTTTAAGCCATGAGGGGGTGTCTGTAGATTTGGCTATCTTTTCTCTACACTTGGCCGGGATTTCCTCCCTTCTAGGAGCTGTAAACTTCATCTCCACAATCCTAAATTTACGAGTTCTTGGGATAGAGTCTGACTGCATACCTCTATTTGTATGATCTATTTTTATCACTGCTATTTTATTACTCCTATCTCTCCCAGTACTGGCAGGGGCCATCACCATGCTTTTGACAGACCGAAACTTAAATAGTAGATTCTACGACCCCTCTGGGGGGGGAGACCCTATCCTCTACCAGCACTTGTTT</t>
   </si>
   <si>
-    <t>1.17_Euterpe_R_TS03703320_HCO_2198.ab1</t>
-  </si>
-  <si>
     <t>43.5%</t>
   </si>
   <si>
@@ -313,9 +247,6 @@
     <t>CCCCCAGAGGGGTCGTAGAATCTACTATTTAAGTTTCGGTCTGTCAAAAGCATGGTGATGGCCCCTGCCAGTACTGGGAGAGATAGGAGTAATAAAATAGCAGTGATAAAAATAGATCATACAAATAGAGGTATGCAGTCAGACTCTATCCCAAGAACTCGTAAATTTAGGATTGTGGAGATGAAGTTTACAGCTCCTAGAAGGGAGGAAATCCCGGCCAAGTGTAGAGAAAAGATAGCCAAATCTACAGACACCCCCTCATGGCTTAAAAGCCTCCTCAGCGGGGGGTACACAGTCCATCCTGTGCCGGCTCCTTGCTCTACTATTCTTCTTAAAAGCAGTAAGAATATGGCAGGTATTAAAAACCAAAACCTTATGTTATTTAACCGGGGAAAAGCTATATCTGCTCTTCCTAGTATTAAAGGAACGAGTCAATTTCCAAATCCGCCAATCATAACTGGCATGACTATGAAAAAAATCATAATAAAAGCGTGAGCAGTGACTACAGTGTTGTATAACTGGCCCCTGAAGAGAAAGGACCCAGGCTGGCCCAGCTCCGTCCGAATTAGTATTCTCAGGCTTGACCCTACTATTCCTAATCAAGCCCCTGCTATAAAATACAGGGTT</t>
   </si>
   <si>
-    <t>2.2_TS04253729_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>38.6%</t>
   </si>
   <si>
@@ -325,9 +256,6 @@
     <t>TACGGCACGGGCCTTAGAATAATTATTCGATTAGAGTTAGGGCAAAGAGGCTCTTTGTTGGGGGATGATCAATTATATAATGTATTAGTTACTGCGCATGCTTTTATTATAATTTTTTTTATGGTAATACCTGTCTTAATTGGGGGGTTCGGGAACTGATTAGTTCCCTTAATACTAGGCGCTCCGGATATAGCTTTTCCTCGTTTAAACAACATAAGATTTTGGTTTATTGTTCCTGCTTTAGTCTTACTTCTTAGAAGGAGCTTAGTAGAAGCAGGGGCTGGAACAGGCTGAACAGTTTATCCTCCATTGAGAAGAAACATTGCACATGGGGGGGCATCAGTAGACCTAGCAATTTTTTCTCTTCATTTAGCAGGGATTTCATCTCTACTAGGCGCGGTTAATTTTATTAAAACTTTAAGTAATCTACGAGCTATAGGGATGCTAATAGATCGAATACCATTATTTCCTTGGTCAGTTTTAGTAACCGCTGTTCTACTACTACTTTCTTTACCTGTATTAGCAGGAGCCATTACTATGCTTTTAACTGACCGTAATTTTAACTCGTCTTTCTACGACCCTAGAGGGGGAGGGGATCCCCTACTATATCAACATTTATTT</t>
   </si>
   <si>
-    <t>2.3_Corycaeus_TS03703309_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>38.1%</t>
   </si>
   <si>
@@ -337,9 +265,6 @@
     <t>GGTATAATTGGCACGGGCCTTAGAATAATTATTCGATTAGAGTTAGGGCAAAGAGGCTCTTTGTTGGGGGATGATCAATTATATAATGTAGTAGTTACTGCGCATGCTTTTATTATAATTTTTTTTATGGTAATACCTGTCTTAATTGGGGGGTTCGGGAACTGATTAGTTCCTTTAATACTAGGCGCTCCGGATATAGCTTTTCCTCGTTTAAACAACATAAGATTTTGGTTTATTGTTCCTGCTTTAGTCTTACTTCTTAGAAGGAGCTTAGTAGAAGCAGGGGCTGGAACAGGCTGAACAGTTTATCCTCCATTGAGAAAAAACATTGCACATGGGGGGGCATCAGTAGATCTAGCAATTTTTTCTCTTCATTTAGCAGGGATTTCATCTCTACTGGGCGCGGTTAATTTTATTAAAACTTTAAGTAATCTACGAGCTATAGGGATGCTAATAGATCGAATACCATTATTTCCTTGGTCAGTTTTAGTAACCGCTGTTCTACTACTACTTTCTTTACCTGTATTAGCAGGAGCCATTACTATGCTTTTAACTGACCGTAATTTTAACTCGTCTTTCTACGACCCTAGAGGGGGAGGGGATCCCCTATTATATCAACATTTATTT</t>
   </si>
   <si>
-    <t>2.5_C.anglicus_TS03703248_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>39.1%</t>
   </si>
   <si>
@@ -349,27 +274,18 @@
     <t>TTGGGCACGGGCCTTACAATAATTATTCGATTAGAGTTAGGGCAAAGAGGCTCTTTGTTGGGGGATGATCAATTATATAATGTAGTAGTCACTGCGCATGCTTTTATTATAATTTTTTTTATGGTAATACCTGTCTTAATTGGGGGGTTCGGGAACTGATTAGTTCCCTTAATACTAGGCGCTCCGGATATAGCTTTTCCTCGTTTAAACAACATAAGATTTTGGTTTATTGTACCTGCTTTAGTCTTACTTCTTAGAAGGAGCTTAGTAGAAGCAGGGGCTGGAACAGGCTGAACAGTTTATCCTCCATTGAGAAGAAACATTGCACATGGGGGGGCATCAGTAGATCTAGCAATTTTTTCTCTTCATTTAGCAGGGATTTCATCCCTACTGGGCGCGGTTAATTTTATTAGAACTTTAAGTAATCTACGAGCTATAGGGATGCTAATAGATCGAATACCATTATTTCCTTGGTCAGTTTTAGTAACCGCTGTTCTACTACTACTTTCTTTACCTGTATTAGCAGGAGCCATTACTATGCTTTTAACTGACCGTAATTTTAACTCGTCTTTCTACGACCCTAGAGGGGGAGGGGATCCCCTATTATATCAACATTTATTT</t>
   </si>
   <si>
-    <t>2.6_C.anglicus_TS03703249_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>38.9%</t>
   </si>
   <si>
     <t>TCTGGGGATGTGATCTGGGTATAATTGGGCACGGGCCTTAGAATAATTATTCGATTAGAGTTAGGGCAAAGAGGCTCTTTGTTGGGGGATGATCAATTATATAATGTAGTAGTTACTGCGCATGCTTTTATTATAATTTTTTTTATGGTAATACCTGTCTTAATTGGGGGGTTCGGGAACTGATTAGTTCCCTTAATACTAGGCGCTCCGGATATAGCTTTTCCTCGTTTAAACAACATAAGATTTTGGTTTATTGTTCCTGCTTTAGTCTTACTTCTTAGAAGGAGCTTAGTAGAAGCAGGGGCTGGAACAGGCTGAACAGTTTATCCTCCATTGAGAAGAAACATTGCACATGGGGGGGCATCAGTAGATCTAGCAATTTTTTCTCTTCATTTAGCAGGGATTTCATCTCTACTGGGCGCGGTTAATTTTATTAGAACTTTAAGTAATCTACGAGCTATAGGGATGCTAATAGATCGAATACCATTATTTCCTTGGTCAGTTTTAGTAACTGCTGTTCTACTACTACTTTCTTTACCTGTATTAGCAGGAGCCATTACTATGCTTTTAACTGACCGTAATTTTAACTCGTCTTTCTACGACCCTAGAGGGGGAGGGGATCCCCTATTATATCAACATTTATTT</t>
   </si>
   <si>
-    <t>2.16_TS04253732_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>85.9%</t>
   </si>
   <si>
     <t>TGGCACGGGCCTTAGAATAATTATTCGATTAGAGTTAGGGCAAAGAGGCTCTTTGTTGGGGGATGATCAATTATATAATGTAGTAGTTACTGCGCATGCTTTTATTATAATTTTTTTTATGGTAATACCTGTCTTAATTGGAGGGTTCGGGAACTGATTAGTTCCCTTAATACTAGGCGCTCCGGATATAGCTTTTCCTCGTTTAAACAACATAAGATTTTGGTTTATTGTTCCTGCTTTAGTCTTACTTCTTAGAAGGAGCTTAGTAGAAGCAGGGGCTGGAACAGGCTGAACAGTTTATCCTCCATTGAGAAGAAACATTGCACATGGGGGGGCATCAGTAGATCTAGCAATTTTTTCTCTTCATTTAGCAGGGATTTCATCTCTACTGGGCGCGGTTAATTTTATTAGAACTTTAAGTAATCTACGAGCTATAGGGATGCTAATAGATCGAATACCATTATTTCCTTGGTCAGTTTTAGTAACCGCTGTTCTACTACTACTTTCTTTACCTGTATTAGCAGGAGCCATTACTATGCTTTTAACTGACCGTAATTTTAACTCGTCTTTCTACGACCCTAGAGGGGGAGGGGATCCCCTATTATATCAACATTTATTT</t>
   </si>
   <si>
-    <t>2.17_Corycaeus_TS03703277_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>38.8%</t>
   </si>
   <si>
@@ -379,9 +295,6 @@
     <t>GATGTGATCTGGGTATAATTGGGCACGGGCCTTAGAATAATTATTCGATTAGAGTTAGGGCAAAGAGGCTCTTTGTTGGGGGATGATCAATTATATAATGTAGTAGTTACTGCGCATGCTTTTATTATAATTTTTTTTATGGTAATACCTGTCTTAATTGGGGGGTTCGGGAACTGATTAGTTCCCTTAATACTAGGCGCTCCGGATATAGCTTTTCCTCGTTTAAACAACATAAGATTTTGGTTTATTGTTCCTGCTTTAGTCTTACTTCTTAGAAGGAGCTTAGTAGAAGCAGGGGCTGGGACAGGCTGAACAGTTTATCCTCCATTGAGAAGAAACATTGCACATGGGGGGGCATCAGTAGATCTAGCAATTTTTTCTCTTCATTTAGCAGGGATTTCATCTCTACTGGGCGCGGTTAATTTTATTAGAACTTTAAGTAATCTACGAGCTATAGGGATGCTAATAGATCGAATACCATTATTTCCTTGGTCAGTTTTAGTAACCGCTGTTCTACTACTACTTTCTTTACCTGTATTAGCAGGAGCCATTACTATGCTTTTAACTGACCGTAATTTTAACTCGTCTTTCTACGATCCTAGAGGGGGAGGGGATCCCCTATTATATCAACATTTATTT</t>
   </si>
   <si>
-    <t>3.3_Calanus_h_TS03703311_LCO_1537.ab1</t>
-  </si>
-  <si>
     <t>39.4%</t>
   </si>
   <si>
@@ -394,15 +307,9 @@
     <t>ATAACGTTGTAGTAACTGCACACGCATTTATTATAATTTTTTTTATAGTTATGCCTATTTTAATTGGAGGATTTGGAAACTGATTGGTCCCTTTAATATTGGGTGCAGCAGATATGGCATTTCCTCGTATAAATAATATAAGATTCTGGTTCTTAATGCCAGCTTTAATTATACTTTTGTCAAGATCTCTGGTTGAAAGGGGCGCAGGTACTGGGTGAACCGTGTACCCCCCCCTATCCAGAAATGTAGCCCATGCTGGAGCTTCTGTCGACTTTGCTATTTTTTCGTTACATTTAGCTGGGGTGAGATCTATTTTAGGGGCTGTAAATTTTATTAGAACCCTTGGCAATCTTCGAGTGTTTGGTATATTACTTGATCGAATGCCTCTTTTTGCCTGGGCTGTTCTAATTACTGCGGTCTTACTTCTCTTATCTCTCCCTGTTTTGGCCGGGGCAATTACAATACTACT</t>
   </si>
   <si>
-    <t>3.18_Calanus_h_TS03703312_LCO_1537.ab1</t>
-  </si>
-  <si>
     <t>86.4%</t>
   </si>
   <si>
-    <t>4.1_Centropages_TS03703281_LCO 1490.ab1</t>
-  </si>
-  <si>
     <t>43.6%</t>
   </si>
   <si>
@@ -415,9 +322,6 @@
     <t>AAGGGCAGGGGGCTTGATCAGGAATAGTTGGGACAGGGCTCAGTATAATTATCCGAATGGAGTTGGGCCAAGCAGGAAGACTAATTGGGGATGATCAGATTTACAATGTCGTGGTTACAGCTCACGCATTTATTATAATTTTTTTCATGGTTATGCCTATTCTTATTGGGGGGTTTGGTAACTGATTAGTTCCTTTGATATTAGGGGCGGCGGATATAGCTTTCCCCCGTATAAATAATATAAGGTTTTGGTTCTTAATACCAGCGTTGATCATGCTTCTATCTAGGTCTCTGGTTGAAAGAGGGGCTGGGACAGGGTGAACAGTGTACCCACCCCTTTCTAGAAATGTGGCGCACGCTGGCAGGTCTGTTGATTTTGCCATTTTTTCTCTTCACTTGGCCGGGGTCAGTTCAATTTTAGGCGCCGTTAATTTTATTAGAACTTTGGGTAATTTGCGAGTGTTCGGCATAATCTTAGACCGAATGCCACTATTCGCCTGATCTGTATTGATTACCGCCGTGTTGTTGCTTCTATCCCTTCCTGTGTTGGCCGGGGCAATTACTATACTTTTAACTGACCGTAACTTAAACTCTTCTTTCTATGATACAAGAGGGGGTGGTGACCCAATTCTGTACCAACATTTATTC</t>
   </si>
   <si>
-    <t>4.2_Centropages_TS03703282_LCO 1490.ab1</t>
-  </si>
-  <si>
     <t>42.3%</t>
   </si>
   <si>
@@ -427,24 +331,15 @@
     <t>GGAGCTTGAATCAGGAATAGTTGGGACAGGGCTCAGAATAATTATCCGAATGGAGTTGGGACAATCCGGATCACTAATTGGGGATGATCAGATTTACAATGTCGTGGTTACAGCTCACGCATTTATTATAATTTTTTTCATGGTTATGCCTATTCTTATTGGGGGGTTTGGAAATTGATTAGTTCCTTTGATATTAGGGGCGGCGGATATAGCTTTCCCCCGTATAAATAATATAAGGTTTTGATTCTTAATACCAGCGTTGATCATGCTTCTATCTAGGTCTCTGGTTGAAAGAGGGGCTGGAACAGGGTGAACTGTGTACCCACCCCTTTCTAGAAATGTGGCGCACGCTGGAAGGTCTGTTGATTTTGCCATTTTTTCTCTTCATTTGGCCGGAGTCAGTTCAATTTTAGGCGCCGTTAATTTTATTAGAACTTTGGGAAATTTGCGAGTGTTCGGCATAATCTTAGACCGAATGCCTCTATTCGCCTGATCTGTATTGATTACCGCCGTGTTGTTGCTTCTATCCCTTCCTGTGTTGGCCGGAGCAATTACTATACTTTTAACTGACCGTAACTTAAACTCTTCTTTCTATGACGCTGGAGGGGGTGGAGACCCAATTCTATACCAGCATTTATTC</t>
   </si>
   <si>
-    <t>4.10_Centropages_TS03703283_LCO 1490.ab1</t>
-  </si>
-  <si>
     <t>CTTTTTTATGGGCAGGAGCTTGATCAGGAATAGTTGGGTGACAGGGCTCAGTATAATTATCCGAATGGAGTTGGGCCAAGCAGGAAGACTAATTGGGGATGATCAGATTTACAATGTCGTGGTTACAGCTCACGCATTTATTATAATTTTTTTCATGGTTATGCCTATTCTTATTGGGGGGTTTGGTAACTGATTAGTTCCTTTGATATTAGGGGCGGCGGATATAGCTTTCCCCCGTATAAATAATATAAGGTTTTGGTTCTTAATACCAGCGTTGATCATGCTTCTATCTAGGTCTCTGGTTGAAAGAGGGGCTGGGACAGGGTGAACTGTGTACCCACCCCTTTCTAGAAATGTGGCGCATGCTGGCAGGTCTGTTGATTTTGCCATTTTTTCTCTTCACTTGGCCGGGGTCAGTTCAATTTTAGGCGCCGTTAATTTTATTAGAACTTTGGGTAATTTGCGAGTGTTCGGCATAATCTTAGACCGAATGCCCCTATTCGCCTGATCTGTATTGATTACCGCCGTGTTGTTGCTTCTGTCCCTTCCTGTGCTGGCCGGGGCAATTACTATACTTTTAACTGACCGTAACTTAAACTCTTCTTTCTATGACGCAGGAGGGGGTGGTGATCCAATTCTATACCAGCATTTATTC</t>
   </si>
   <si>
-    <t>4.13_Centropages_TS03703284_LCO 1490.ab1</t>
-  </si>
-  <si>
     <t>72.4%</t>
   </si>
   <si>
     <t>CAGGGGCCTGAATCAGGAATAGTTGGGACAGGGCTCAGTATAATTATTCGAATGGAGTTGGGCCAAGCAGGAAGACTAATTGGGGATGATCAGATTTACAATGTCGTGGTTACAGCTCACGCATTTATTATAATTTTTTTCATGGTTATGCCTATTCTTATTGGGGGGTTTGGTAACTGATTAGTTCCTTTGATATTAGGGGCGGCGGATATAGCTTTCCCCCGTATAAATAATATAAGGTTTTGGTTCTTAATACCAGCGTTGATCATGCTTCTATCTAGGTCTCTGGTTGAAAGAGGGGCTGGGACAGGGTGAACAGTGTACCCACCCCTTTCTAGAAATGTGGCGCACGCTGGCAGGTCTGTTGATTTTGCCATTTTTTCTCTTCACTTGGCCGGGGTCAGTTCAATTTTAGGCGCCGTTAATTTTATTAGGACTTTGGGTAATTTGCGAGTGTTCGGTATAATCTTAGACCGAATACCACTATTCGCCTGATCTGTATTGATTACCGCCGTGTTGTTGCTTCTGTCCCTTCCTGTGCTGGCCGGGGCAATTACTATACTTTTAACTGATCGTAACTTAAACTCTTCTTTCTATGACACAAGAGGGGGTGGTGACCCAATTCTATACCAGCATTTATTC</t>
   </si>
   <si>
-    <t>5.8_Isias_TS03703286_LCO 1490.ab1</t>
-  </si>
-  <si>
     <t>46.5%</t>
   </si>
   <si>
@@ -454,9 +349,6 @@
     <t>CCGGGGCATGAGCGGGGATAGTAGGGACCGGCCTAAGAATAATTATCCGGATAGAGCTTGGGCAGGCCGGTAGGCTGATCGGGGACGATCAAATTTATAACGTTGTCGTAACCGCACATGCTTTCATTATGATTTTTTTTATGGTTATACCTATTCTTATTGGGGGGTTTGGAAATTGGTTAGTCCCGTTAATGTTGGGCGCTGCTGACATAGCTTTCCCGCGGATGAATAATATAAGATTCTGATTTTTAATGCCTGCCTTAGTGATGCTGCTTTCAAGGTCATTAGTAGAAAGGGGGGCTGGAACTGGGTGAACAGTATACCCGCCGCTCTCTAGAAACTTAGCCCATGCGGGGAGATCTGTTGATTTTGCCATTTTCTCACTGCATCTGGCTGGGGTAAGGTCCATTCTCGGGGCTGTAAACTTTATTAGAACCTTGGGCAATCTACGAGTTTTTGGGATGGTTTTAGATCGGATGCCTCTTTTCGCCTGGTCCGTACTTATTACTGCTGTTTTGCTTCTTTTGTCTCTTCCTGTTCTTGCTGGGGCCATCACGATGCTTCTAACCGATCGTAATCTGAACTCTTCGTTTTATGACGCTAGGGGTGGGGGGGACCCTATCTTATACCAGCACTTATTT</t>
   </si>
   <si>
-    <t>5.11_Isias_TS03703310_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>46.2%</t>
   </si>
   <si>
@@ -466,9 +358,6 @@
     <t>GGACGGGCCTAAGAATAATTATCCGGATAGAGCTTGGGCAGGCCGGTAGGCTGATCGGGGACGATCAAATTTATAACGTTGTCGTAACCGCACATGCTTTCATTATGATTTTTTTCATAGTTATACCTATTCTTATTGGGGGGTTTGGAAATTGGTTAGTCCCGTTAATGTTGGGCGCTGCTGACATAGCTTTCCCGCGGATGAATAATATAAGATTCTGATTTTTAATGCCTGCCTTAGTGATGCTGCTTTCAAGGTCATTAGTAGAAAGGGGGGCTGGAACTGGGTGAACAGTATACCCGCCGCTCTCTAGAAACTTAGCCCATGCGGGGAGATCTGTTGATTTCGCCATTTTCTCACTGCATCTGGCTGGGGTGAGGTCCATTCTCGGGGCTGTAAACTTTATTAGAACCTTGGGCAATCTACGAGTTTTTGGGATGGTTTTAGATCGGATGCCTCTTTTCGCCTGGTCTGTACTTATTACTGCCGTTTTGCTTCTTTTGTCTCTTCCTGTTCTTGCTGGGGCCATCACGATGCTTCTAACCGATCGTAATCTGAACTCTTCGTTTTATGACGCTAGGGGTGGGGGGGACCCTATCTTGTACCAGCACTTATTT</t>
   </si>
   <si>
-    <t>5.16_Isias_TS03703287_LCO 1490.ab1</t>
-  </si>
-  <si>
     <t>46.7%</t>
   </si>
   <si>
@@ -478,9 +367,6 @@
     <t>CCGGGGCATGAAGCGGGGATAGTAGGGACTGGCCTAAGAATAATTATCCGGATAGAGCTTGGGCAGGCCGGTAGGCTGATCGGGGACGATCAAATTTATAACGTTGTCGTAACCGCACATGCTTTCATTATGATTTTTTTTATAGTTATACCTATTCTTATTGGGGGGTTTGGAAATTGGTTAGTCCCGTTAATGTTGGGCGCTGCTGACATAGCTTTCCCGCGGATGAATAATATAAGATTCTGATTTTTAATGCCTGCCTTAGTGATGCTGCTTTCAAGGTCATTAGTAGAAAGGGGGGCTGGAACTGGGTGAACAGTATACCCGCCGCTCTCTAGAAACTTAGCCCATGCGGGGAGATCTGTTGATTTTGCCATTTTCTCACTGCATCTGGCTGGGGTGAGGTCCATTCTCGGGGCTGTAAACTTTATTAGAACCTTGGGCAATCTACGAGTTTTTGGGATGGTTTTAGATCGGATGCCTCTTTTCGCCTGGTCCGTACTTATTACTGCCGTTTTGCTTCTTTTGTCTCTTCCTGTTCTTGCTGGGGCCATCACGATGCTTCTAACCGATCGTAATCTGAACTCTTCGTTTTATGACGCTAGGGGTGGGGGGGACCCTATCCTGTACCAGCACTTATTT</t>
   </si>
   <si>
-    <t>5.16_TS04253733_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>46.3%</t>
   </si>
   <si>
@@ -490,9 +376,6 @@
     <t>GCGGGGATAGTAGGGACTGGCCTAAGAATAATTATCCGGATAGAGCTTGGGCAGGCCGGTAGGCTGATCGGGGACGATCAAATTTATAACGTTGTCGTAACCGCACATGCTTTCATTATGATTTTTTTTATAGTTATACCTATTCTTATTGGGGGGTTTGGAAATTGGTTAGTCCCGTTAATGTTGGGCGCTGCTGACATAGCTTTCCCGCGGATGAATAATATAAGATTCTGATTTTTAATGCCTGCCTTAGTGATGCTGCTTTCAAGGTCATTAGTAGAAAGGGGGGCTGGAACTGGGTGAACAGTATACCCGCCGCTCTCTAGAAACTTAGCCCATGCGGGGAGATCTGTTGATTTTGCCATTTTCTCACTGCATCTGGCTGGGGTGAGGTCCATTCTCGGGGCTGTAAACTTTATTAGAACCTTGGGCAATCTACGAGTTTTTGGGATGGTTTTAGATCGGATGCCTCTTTTCGCCTGGTCCGTACTTATTACTGCCGTTTTGCTTCTTTTGTCTCTTCCTGTTCTTGCTGGGGCCATCACGATGCTTCTAACCGATCGTAATCTGAACTCTTCGTTTTATGACGCTAGGGGTGGGGGGGACCCTATCCTGTACCAGCACTTATTT</t>
   </si>
   <si>
-    <t>5.17_TS04253718_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>45.6%</t>
   </si>
   <si>
@@ -502,9 +385,6 @@
     <t>GACCGGCCTAAGAATAATTATCCGGATAGAGCTTGGGCAGGCCGGTAGGCTGATCGGGGACGATCAAATTTATAACGTTGTCGTAACCGCACATGCTTTCATTATGATTTTTTTTATGGTTATACCTATTCTTATTGGGGGGTTTGGAAATTGGTTAGTCCCGTTAATGTTGGGCGCTGCTGACATAGCTTTCCCGCGGATGAATAATATAAGATTCTGATTTTTAATGCCTGCCTTAGTGATGCTGCTTTCAAGGTCATTAGTAGAAAGGGGGGCTGGAACTGGGTGAACAGTATACCCGCCGCTCTCTAGAAACTTAGCCCATGCGGGGAGATCTGTTGATTTTGCCATTTTCTCACTGCATCTGGCTGGGGTAAGGTCCATTCTCGGGGCTGTAAACTTTATTAGAACCTTGGGCAATCTACGAGTTTTTGGGATGGTTTTAGATCGGATGCCTCTTTTCGCCTGGTCCGTACTTATTACTGCTGTTTTGCTTCTTTTGTCTCTTCCTGTTCTTGCTGGGGCCATCACGATGCTTCTAACCGATCGTAATCTGAACTCTTCGTTTTATGACGCTAGGGGTGGGGGGGACCCTATCTTATACCAGCACTTATTT</t>
   </si>
   <si>
-    <t>6.13_Temora_TS03703288_LCO 1490.ab1</t>
-  </si>
-  <si>
     <t>91.3%</t>
   </si>
   <si>
@@ -514,18 +394,12 @@
     <t>TTTGTTTTTAGCGGGTGCTTGGGCGGGGATGGTGGGCACAGGGTTGAGTATGATTATTCGTATAGAGTTAGGCCAACCTGGTAGCCTGATCGGGGACGATCAGATTTATAATGTGGTGGTAACGGCTCATGCCTTTGTGATAATTTTTTTTATGGTAATGCCTATTTTAATTGGGGGGTTCGGGAACTGGCTAGTTCCTTTAATGTTAGGGGCAGCAGATATGGCGTTTCCTCGAATGAATAATATAAGGTTCTGATTCCTTATACCTGCTCTGCTAATATTGCTTATAAGTTCAATGGTAGAGAGTGGAGCAGGTACGGGGTGAACTGTTTACCCCCCTTTGTCAAGTAACGTGGCCCATTCTGGGGGTTCAGTAGACTTTGCCATTTTTTCTCTTCATCTGGCGGGGGTAAGGTCTATCCTGGGCGCAGTAAACTTTATTAGCACTTTGGGTAATTTGCGGGTGTTTGGGATGGTGTTAGATCGTCTGCCTTTGTTTGCGTGGGCCGTTTTAATTACTGCTGTTCTACTACTACTCTCTCTCCCGGTGTTGGCGGGAGCTATTACAATATTGCTGACAGACCGAAACCTAAACTCTTCTTTCTACGATACGGGGGGGGGGGG</t>
   </si>
   <si>
-    <t>6.16_Temora_TS03703289_LCO 1490.ab1</t>
-  </si>
-  <si>
     <t>43.0%</t>
   </si>
   <si>
     <t>GCCAAAGGGTTGAGTATGATTATTCGTATAAAGTTAGGCCAACCTGGTATCCTGATCGGGAACAATCAAATTTATAATGAGGAGGAAACGGTTCAGGCCTTTGTGATAATTTTTTTTATGGAAATGCCTATTTTAATTGGGGGGTTCGGAAACTGGTTAGTTCCTTTAATGTTAGGGGCACTGAATATGGCGTTTCCTCGAATGAATAATATAAGGTTCTGATTCCTTATACCTGCTCTGCTAATATTGCTTATAAGTTCAATGGTAGAGAGTGAAGCAGGTACGGGGTGAACTGTTTACCCCCCTTTGTCAAGTAACGTGGCCCATTCTGGGGGTTCAGTAGACTTTGCCATTTTTTCTCTTCATCTGGCGGGGGTAAGGTCTATCCTGGGCGCAGTAAACTTTATTAGAACTTTGGGAAATTTGCGGGTGTTTGGGATGGTGTTAGATCGACTGCCTTTGTTTGCGTGGGCCGTTTTAATTACTGCTGTTCTACTACTACTCTCTCTCCCGGTGTTGGCGGGAGCTATTACAATATTGCTGACAGACCGAAACCTAAACTCTTCTTTCTACGATACGGGGGGGGGGGGGGATCCTTTTTTTTATCAGCATTTATTT</t>
   </si>
   <si>
-    <t>7.1_Oncaea_TS03703272_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>37.4%</t>
   </si>
   <si>
@@ -538,18 +412,12 @@
     <t>CTGGGGGCATGAGCAGGGATGTATGGGACAGGCCTTAGAATATTAATTCGGATGGAGCTCGGGAAACCTGGTTCTTTATTAGGGGACGACCACATATATAATGTCATTGTGACAGCCCATGCTTTTATTATGATTTTTTTTATGGTCATACCTATTTTAATTGGTGGCTTTGGTAATTGATTAATACCTTTAATATTGGGTGCTCCTGATATAGCTTTTCCTCGATTAAATAATATAAGATTTTGAATACTTCTTCCTGCCTTAATTATATTAACATCAAGAGCTTTAGTGGAGTCAGGGGCCGGTACGGGGTGAACAGTTTATCCACCTTTAAGGAGAAATGTAGCGCATTCAGGAGCTTCTGTTGATTTTGCAATTTTTGCTCTTCATCTGGCCGGGGTTTCATCATTGTTAGGTGCAGTAAATTTTATTACCACTTTCTCCAATTTACGGGGGTTAGGTATACTTTTAGAACGAGTTCCCCTATTTGGATGGGCAGTATTAATTACCACAATTCTACTTTTATTATCTTTACCTGTATTAGCTGGAGCAATTACCATACTTTTAACAGATCGTAACTTAAATACATCATTTTACGATTCTAATGGTGGTGGTGACCCTATTTTGTACCAACATCTATTT</t>
   </si>
   <si>
-    <t>7.2_Oncaea_TS03703273_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>95.2%</t>
   </si>
   <si>
     <t>CTGGGGGCATGAGCAGGGATGTATGGGACAGGTCTTAGAATACTGATTCGGATGGAGCTCGGAAAACCTGGTTCTTTATTAGGGGATGATCACATATATAATGTCATTGTGACAGCCCATGCTTTTATTATGATTTTTTTTATGGTCATACCTATTTTAATTGGTGGCTTTGGTAATTGATTAATACCTTTAATATTGGGTGCTCCTGATATAGCCTTTCCTCGATTAAATAATATAAGATTTTGAATACTTCTTCCTGCCTTAATTATATTAACATCAAGAGCTTTAGTTGAGTCAGGGGCCGGTACGGGGTGAACAGTTTATCCACCTTTAAGGAGAAACGTAGCGCATTCAGGAGCTTCTGTTGATTTTGCAATTTTTGCTCTTCATCTGGCCGGGGTTTCATCATTGTTAGGTGCAGTAAATTTTATTACCACTTTCTCTAATTTACGGGGGCTAGGTATACTTTTAGAGCGAGTTCCCCTATTTGGATGGGCAGTATTAATTACCACAATTCTACTTTTATTATCTTTGCCTGTATTAGCTGGAGCAATTACCATACTTTTAACAGATCGTAACTTAAATACATCATTTTACGATTCTAATGGTGGAGGTGACCCTATTTTGTATCAACATCTATTT</t>
   </si>
   <si>
-    <t>8.9_TS04253726_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>31.0%</t>
   </si>
   <si>
@@ -562,9 +430,6 @@
     <t>GCTTGATCCGGATAATTGGGACAGGATTAAGAATAATTATTCGATTGGAATTAGGACAATCTGGATCCTTAATTGGTGATGATCAGATCTATAATGTAGTAGTAACAGCTCATGCATTTATTATGATTTTTTTTATAGTGATGCCTATTTTAATTGGAGGATTTGGAAATTGATTAGTTCCATTAATATTAGGAGCAGCTGATATAGCCTTTCCTCGTATAAATAATATAAGATTTTGATTTTTAATTCCGGCATTGATTATGTTATTATCTAGATCTTTAGTTGAAAGAGGTGCAGGAACAGGTTGAACTGTTTATCCTCCACTATCTAGAAATATTGCTCATGCTGGAAGATCAGTTGATTTTGCAATTTTTTCTTTACATTTAGCAGGAGTAAGTTCAATTCTAGGTGCAGTTAACTTTATTAGAACTTTAGGAAATTTACGAGTATTTGGTATATTGTTAGATCGAATACCTTTATTTGCATGGGCTGTTTTAATCACTGCCATCTTATTATTATTATCTTTACCTGTTTTAGCAGGAGCTATTACTATATTACTAACTGATCGAAATTTAAATACTACTTTTTATGATGTTGGTGGTGGGGGAGATCCTATTTTATATCAACATTTATTT</t>
   </si>
   <si>
-    <t>A4_S_TS03703323_L1384.ab1</t>
-  </si>
-  <si>
     <t>45.0%</t>
   </si>
   <si>
@@ -577,9 +442,6 @@
     <t>AGCCTTAGAATGCTTATCCGGCTAGAGCTTTCTATGCCCAGAAGATTATTCGGGAACGACCAACTTTATAATGTTATCGTGACCGCTCACGCTTTTATTATAATTTTTTTCATGGTGATGCCTATCCTAATTGGGTTTTTTGGTAATTGACTTGTGCCTCTAATGATCGGAGCCCCTGACATGGCTTTCCCTCGCCTTAATAATATAAGATTTTGATTTTTAATTCCTGCTTTAGCCCTGCTTCTGTTAAGTTCTATAGTGGAGTCAGGGGCGGGGACAGGGTGAACCGTCTACCCCCCACTCAGCAACTCTACCTTCCATAGGGGGCCATCGGTAGATTTTGCAATTTTTAGTCTTCACCTCGCAGGGATTTCTTCTTTACTGGGAGCAGTAAACTTTATCACTACAATTATAAACCTGCGGACTATCGGAATGCTACTTGACTTGATGCCCATATTCCCTTGGGCAGTGCTAGTGACGGCGATCTTGTTACTTCTATCTCTACCGGTGTTGGCGGGCGCGATTACAATGCTTCTCACAGATCGAAACATTAATAGAGTTTTTTATGACTCGATAGGAGGGGGGGACCCTATCCTGTACCAGCATCTATTCTGGTTTTTTGGGCACCCTGAAGTCTATATTTTGATTTTACCTGGATTTGGTCTTATTTCACACATAGTTAGGCAGGAAAGGGGTAAGAAGGAGCCTTTCGGGGCGCTAGGGATAGCGTATGCGATAATGGGGATCGGCTTACTAGGGTTTGTCGTGTGGGCTCACCACATATTTACAGTCGGGCTAGATACGGACACCCGGGCCTACTTTACTACTGCCACGATAATTATTGCAGTGCCCACTGGAATTAAAATTTTTAGATGGATTAGGACAATAAGGGGGGGCATGGC</t>
   </si>
   <si>
-    <t>A4_U_TS03703317_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>45.5%</t>
   </si>
   <si>
@@ -589,36 +451,21 @@
     <t>GGGCCTGGAGGGGCATGGTCGGCACCAGCCTTAGAATGCTTATCCGGCTAGAGCTTTCTATGCCCAGAAGATTATTCGGGAACGACCAACTTTATAATGTTATCGTGACCGCTCACGCTTTTATTATAATTTTTTTCATGGTGATGCCTATCCTAATTGGGTTTTTTGGTAATTGACTTGTGCCTCTAATGATCGGAGCCCCTGACATGGCTTTCCCTCGCCTTAATAATATAAGATTTTGATTTTTAATTCCTGCTTTAGCCCTGCTTCTGTTAAGTTCTATAGTGGAGTCAGGGGCGGGGACAGGGTGAACCGTCTACCCTCCACTCAGCAACTCTACCTTCCATAGGGGGCCATCGGTAGATTTTGCAATTTTTAGTCTTCACCTCGCAGGGATTTCTTCTTTACTGGGAGCAGTAAACTTTATCACTACAATTATAAACCTGCGGACTATCGGAATGCTACTTGACTTGATGCCCATATTCCCTTGGGCAGTGCTAGTGACGGCGATCTTGTTACTTCTATCTCTACCGGTGTTGGCGGGCGCGATTACAATGCTTCTCACAGATCGAAACATTAATAGAGTTTTTTATGACTCGATAGGAGGGGGGGACCCTATCCTGTACCAGCATCTATTC</t>
   </si>
   <si>
-    <t>OPG_001_TS04242470_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>96.2%</t>
   </si>
   <si>
     <t>ATAGTAGGGTCAAGCCTGAGAATACTAATTCGGACGGAGCTGGGCCAGCCTGGGTCCTTTCTCTTCAGGGGCCAGTTATACAACACTGTAGTCACTGCTCACGCTTTTATTATGATTTTTTTCATAGTCATGCCAGTTATGATTGGCGGATTTGGAAATTGACTCGTTCCTTTAATACTAGGAAGAGCAGATATAGCTTTCCCCCGGTTAAATAACATAAGGTTTTGGTTTTTAATACCTGCCATATTCTTACTGCTTTTAAGAAGAATAGTAGAGCAAGGAGCCGGCACAGGATGGACTGTGTACCCCCCGCTGAGGAGGCTTTTAAGCCATGAGGGGGTGTCTGTAGATTTGGCTATCTTTTCTCTACACTTGGCCGGGATTTCCTCCCTTCTAGGAGCTGTAAACTTCATCTCCACAATCCTAAATTTACGAGTTCTTGGGATAGAGTCTGACTGCATACCTCTATTTGTATGATCTATTTTTATCACTGCTATTTTATTACTCCTATCTCTCCCAGTACTGGCAGGGGCCATCACCATGCTTTTGACAGACCGAAACTTAAATAGTAGATTCTACGACCCCTCTGGAGGGGGAGACCCTATCCTCTACCAGCACTTGTTT</t>
   </si>
   <si>
-    <t>OPG_002_TS04242471_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>94.8%</t>
   </si>
   <si>
-    <t>OPG_003_TS04242472_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>90.1%</t>
   </si>
   <si>
-    <t>OPG_004_TS04242473_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>ATAGTAGGGTCAAGCCTGAGAATACTAATTCGGACGGAGCTGGGCCAGCCTGGGTCCTTTCTCTTCAGGGGCCAGTTATACAACACTGTAGTCACTGCTCACGCTTTTATTATGATTTTTTTCATAGTCATGCCAGTTATGATTGGCGGATTTGGAAATTGACTCGTTCCTTTAATACTAGGAAGAGCAGATATAGCTTTTCCCCGGTTAAATAACATAAGGTTTTGGTTTTTAATACCTGCCATATTCTTACTGCTTTTAAGAAGAATAGTAGAGCAAGGAGCCGGCACAGGATGGACTGTGTACCCCCCGCTGAGGAGGCTTTTAAGCCATGAGGGGGTGTCTGTAGATTTGGCTATCTTTTCTCTACACTTGGCCGGGATTTCCTCCCTTCTAGGAGCTGTAAACTTCATCTCCACAATCCTAAATTTACGAGTTCTTGGGATAGAGTCTGACTGCATACCTCTATTTGTATGATCTATTTTTATCACTGCTATTTTATTACTCCTATCTCTCCCAGTACTGGCAGGGGCCATCACCATGCTTTTGACAGACCGAAACTTAAATAGTAGATTCTACGACCCCTCTGGGGGGGGAGACCCTATCCTCTACCAGCACTTGTTT</t>
   </si>
   <si>
-    <t>OPG_012_TS04242464_LCO1537.ab1</t>
-  </si>
-  <si>
     <t>39.2%</t>
   </si>
   <si>
@@ -628,30 +475,18 @@
     <t>ATAACGTTGTAGTAACTGCACACGCATTTATTATAATTTTTTTTATAGTTATGCCTATTTTAATTGGAGGATTTGGAAACTGATTGGTCCCTTTAATATTGGGTGCAGCAGATATGGCATTTCCTCGTATAAATAATATAAGATTCTGGTTCTTAATGCCAGCTTTAATTATACTTTTGTCAAGATCTCTGGTTGAAAGGGGCGCAGGTACTGGGTGAACCGTGTACCCCCCCCTATCCAGAAATGTAGCCCATGCTGGAGCTTCTGTCGACTTTGCTATTTTTTCGTTACATTTAGCTGGGGTGAGATCTATTTTAGGGGCTGTAAATTTTATTAAAACCCTTGGCAATCTTCGAGTGTTTGGTATATTACTTGATCGAATGCCTCTTTTTGCCTGGGCTGTTCTAATTACTGCGGTCTTACTTCTCTTATCTCTCCCTGTTTTGGCCGGGGCAATTACAATACTACT</t>
   </si>
   <si>
-    <t>OPG_013_TS04242459_LCO1537.ab1</t>
-  </si>
-  <si>
     <t>91.9%</t>
   </si>
   <si>
     <t>TAATTGGAGATGATCAAGTATATAACGTTGTAGTAACTGCACACGCATTTATTATAATTTTTTTTATAGTTATGCCTATTTTAATTGGAGGATTTGGAAACTGATTGGTCCCTTTAATATTGGGTGCAGCAGATATGGCATTTCCTCGTATAAATAATATAAGATTCTGGTTCTTAATGCCAGCTTTAATTATACTTTTGTCAAGATCTCTGGTTGAAAGGGGCGCAGGTACTGGGTGAACCGTGTACCCCCCCCTATCCAGAAATGTAGCCCATGCTGGAGCTTCTGTCGACTTTGCTATTTTTTCGTTACATTTAGCTGGGGTGAGATCTATTTTAGGGGCTGTAAATTTTATTAGAACCCTTGGCAATCTTCGAGTGTTTGGTATATTACTTGATCGAATGCCTCTTTTTGCCTGGGCTGTTCTAATTACTGCGGTCTTACTTCTCTTATCTCTCCCTGTTTTGGC</t>
   </si>
   <si>
-    <t>OPG_015_TS04242460_LCO1537.ab1</t>
-  </si>
-  <si>
     <t>87.0%</t>
   </si>
   <si>
-    <t>OPG_016_TS04242465_LCO1537.ab1</t>
-  </si>
-  <si>
     <t>89.3%</t>
   </si>
   <si>
-    <t>OPG_017_TS04242461_LCO1537.ab1</t>
-  </si>
-  <si>
     <t>39.7%</t>
   </si>
   <si>
@@ -661,81 +496,45 @@
     <t>ATAACGTTGTAGTAACTGCACACGCATTTATTATGATTTTTTTTATAGTTATGCCTATTTTAATTGGAGGATTTGGAAACTGATTGGTCCCTTTAATATTGGGTGCAGCAGATATGGCATTTCCTCGTATAAATAATATAAGATTCTGGTTCTTAATGCCAGCTTTAATTATACTTTTGTCAAGATCTCTGGTTGAAAGGGGCGCAGGTACTGGGTGAACCGTGTACCCCCCCCTATCCAGAAATGTAGCCCATGCTGGAGCTTCTGTCGACTTTGCTATTTTTTCGTTACATTTAGCTGGGGTGAGATCTATTTTAGGGGCTGTAAATTTTATTAGAACCCTTGGCAATCTTCGAGTGTTTGGTATATTGCTTGATCGAATGCCTCTTTTTGCCTGGGCTGTTCTAATTACTGCGGTCTTACTTCTTTTATCTCTCCCTGTTTTGGCCGGGGCAATTACAATACTACT</t>
   </si>
   <si>
-    <t>OPG_018_TS04242462_LCO1537.ab1</t>
-  </si>
-  <si>
     <t>93.4%</t>
   </si>
   <si>
-    <t>OPG_019_TS04242466_LCO1537.ab1</t>
-  </si>
-  <si>
-    <t>OPG_020_TS04242463_LCO1537.ab1</t>
-  </si>
-  <si>
     <t>TAATTGGAGATGATCAAGTATATAACGTTGTAGTAACTGCACACGCATTTATTATAATTTTTTTTATAGTTATGCCAATTTTAATTGGAGGATTTGGAAACTGATTGGTCCCTTTAATATTGGGTGCAGCAGATATGGCATTTCCTCGTATAAATAATATAAGATTCTGGTTCTTAATGCCAGCTTTAATTATACTTTTGTCAAGATCTCTGGTTGAAAGGGGCGCAGGTACTGGGTGAACCGTGTACCCCCCCCTATCCAGAAATGTAGCCCATGCTGGAGCTTCTGTCGACTTTGCTATTTTTTCGTTACATTTAGCTGGGGTGAGATCTATTTTAGGGGCTGTAAATTTTATTAGAACCCTTGGCAATCTTCGAGTGTTTGGTATATTGCTTGATCGAATGCCTCTTTTTGCCTGGGCTGTTCTAATTACTGCGGTCTTACTTCTTTTATCTCTCCCTGTTTTGGC</t>
   </si>
   <si>
-    <t>OPG_021_TS04242467_LCO1537.ab1</t>
-  </si>
-  <si>
     <t>ATAACGTTGTAGTAACTGCACACGCATTTATTATAATTTTTTTTATAGTTATGCCTATTTTAATTGGAGGATTTGGAAACTGATTGGTCCCTTTAATATTGGGTGCAGCAGATATGGCATTTCCTCGTATAAATAATATAAGATTCTGGTTCTTAATGCCAGCTTTAATTATACTTTTGTCAAGATCTCTGGTTGAAGGGGGCGCAGGTACTGGGTGAACCGTGTACCCCCCCCTATCCAGAAATGTAGCCCATGCTGGAGCTTCTGTCGACTTTGCTATTTTTTCGTTACATTTAGCTGGGGTGAGATCTATTTTAGGGGCTGTAAATTTTATTAGAACCCTTGGCAATCTTCGAGTGTTTGGTATATTACTTGATCGAATGCCTCTTTTTGCCTGGGCTGTTCTAATTACTGCGGTCTTACTTCTCTTATCTCTCCCTGTTTTGGCCGGGGCAATTACAATACTACT</t>
   </si>
   <si>
-    <t>OPG_024_TS04242468_LCO1537.ab1</t>
-  </si>
-  <si>
     <t>88.3%</t>
   </si>
   <si>
-    <t>OPG_025_TS04242469_LCO1537.ab1</t>
-  </si>
-  <si>
     <t>92.5%</t>
   </si>
   <si>
-    <t>OPG_031_TS04242474_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>94.0%</t>
   </si>
   <si>
-    <t>OPG_032_TS04242475_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>93.1%</t>
   </si>
   <si>
     <t>GGCATGAGCGGGGATAGTAGGGACCGGCCTAAGAATAATTATCCGGATAGAGCTTGGGCAGGCCGGTAGGCTGATCGGGGACGATCAAATTTATAACGTTGTCGTAACCGCACATGCTTTCATTATGATTTTTTTTATGGTTATACCTATTCTTATTGGGGGGTTTGGAAATTGGTTAGTCCCGTTAATGTTGGGCGCTGCTGACATAGCTTTCCCGCGGATGAATAATATAAGATTCTGATTTTTAATGCCTGCCTTAGTGATGCTGCTTTCAAGGTCATTAGTAGAAAGGGGGGCTGGAACTGGGTGAACAGTATACCCGCCGCTCTCTAGAAACTTAGCCCATGCGGGGAGATCTGTTGATTTTGCCATTTTCTCACTGCATCTGGCTGGGGTAAGGTCCATTCTCGGGGCTGTAAACTTTATTAGAACCTTGGGCAATCTACGAGTTTTTGGGATGGTTTTAGATCGGATGCCTCTTTTCGCCTGGTCCGTACTTATTACTGCTGTTTTGCTTCTTTTGTCTCTTCCTGTTCTTGCTGGGGCCATCACGATGCTTCTAACCGATCGTAATCTGAACTCTTCGTTTTATGACGCTGGGGGTGGGGGGGACCCTATCTTATACCAGCACTTATTT</t>
   </si>
   <si>
-    <t>OPG_033_TS04242476_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>89.7%</t>
   </si>
   <si>
-    <t>OPG_037_TS04242477_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>90.0%</t>
   </si>
   <si>
     <t>GGGGCATGAGCGGGGATAGTAGGGACCGGCCTAAGAATAATTATCCGGATAGAGCTTGGGCAGGCCGGTAGGCTGATCGGGGACGATCAAATTTATAACGTTGTCGTAACCGCACATGCTTTCATTATGATTTTTTTTATGGTTATACCTATTCTTATTGGGGGGTTTGGAAATTGGTTAGTCCCGTTAATGTTGGGCGCTGCTGACATAGCTTTCCCGCGGATGAATAATATAAGATTCTGATTTTTAATGCCTGCCTTAGTGATGCTGCTTTCAAGGTCATTAGTAGAAAGGGGGGCTGGAACTGGGTGAACAGTATACCCGCCGCTCTCTAGAAACTTAGCCCATGCGGGGAGATCTGTTGATTTTGCCATTTTCTCACTGCATCTGGCTGGGGTAAGGTCCATTCTCGGGGCTGTAAACTTTATTAGAACCTTGGGCAATCTACGAGTTTTTGGGATGGTTTTAGATCGGATGCCTCTTTTCGCCTGGTCCGTACTTATTACTGCTGTTTTGCTTCTTTTGTCTCTTCCTGTTCTTGCTGGGGCCATCACGATGCTTCTAACCGATCGTAATCTGAACTCTTCGTTTTATGACGCTAGGGGTGGGGGGGACCCTATCTTATACCAGCACTTATTT</t>
   </si>
   <si>
-    <t>OPG_039_TS04242479_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>46.0%</t>
   </si>
   <si>
     <t>TGAGCGGGGATAGTAGGGACCGGCCTAAGAATAATTATCCGGATAGAGCTTGGGCAGGCCGGTAGGCTGATCGGGGACGATCAAATTTATAACGTTGTCGTAACCGCACATGCTTTCATTATGATTTTTTTTATGGTTATACCTATTCTTATTGGGGGGTTTGGAAATTGGTTAGTCCCGTTAATGTTGGGCGCTGCTGACATAGCTTTCCCGCGGATGAATAATATAAGATTCTGATTTTTAATGCCTGCCTTAGTGATGCTGCTTTCAAGGTCATTAGTAGAAAGGGGGGCTGGAACTGGGTGAACAGTATACCCGCCGCTCTCTAGAAACTTAGCCCATGCGGGGAGATCTGTTGATTTTGCCATTTTCTCACTGCATCTGGCTGGGGTAAGGTCCATTCTCGGGGCTGTAAACTTTATTAGAACCTTGGGCAATCTACGAGTTTTTGGGATGGTTTTAGATCGGATGCCTCTTTTCGCCTGGTCCGTACTTATTACTGCTGTTTTGCTTCTTTTGTCTCTTCCTGTTCTTGCTGGGGCCATCACGATGCTTCTAACCGATCGTAATCTGAACTCTTCGTTTTATGACGCTAGGGGTGGGGGGGACCCTATCTTATACCAGCACTTATTT</t>
   </si>
   <si>
-    <t>OPG_040_TS04242478_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>44.4%</t>
   </si>
   <si>
@@ -745,9 +544,6 @@
     <t>GACCGGCCTAAGAATAATTATCCGGATAGAGCTTGGGCAGGCCGGTAGGCTGATCGGGGACGATCAAATTTATAACGTTGTCGTAACCGCACATGCCTTCATTATGATTTTTTTTATAGTTATACCTATTCTTATTGGGGGGTTTGGAAATTGGTTAGTCCCGTTAATGTTGGGCGCTGCTGACATAGCTTTCCCGCGGATGAATAATATAAGATTCTGATTTTTAATGCCTGCCTTAGTGATGCTGCTTTCAAGGTCATTAGTAGAAAGGGGGGCTGGAACTGGGTGAACAGTATACCCGCCGCTCTCTAGAAACTTAGCCCATGCGGGGAGATCTGTTGATTTTGCCATTTTCTCACTGCATCTAGCTGGGGTGAGGTCCATTCTCGGGGCTGTAAACTTTATTAGAACCTTGGGCAATCTACGAGTTTTTGGGATGGTTTTAGATCGGATGCCTCTTTTCGCCTGGTCCGTACTTATTACTGCCGTTTTGCTTCTTTTGTCTCTTCCTGTTCTTGCTGGGGCCATCACGATGCTTCTAACCGATCGTAATCTGAACTCTTCGTTTTATGACGCTAGGGGTGGGGGGGACCCTATCTTGTACCAGCACTTATTTTGATTTTTTGGTCACCTGGAATTTAAATTGATTTTTAAAATGAAGGTGTCTACCTACCTCATTTACCAGTGTTTCGGATCCGATTATTGGATTG</t>
   </si>
   <si>
-    <t>OPG_047_TS04242486_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>31.3%</t>
   </si>
   <si>
@@ -757,9 +553,6 @@
     <t>AACAGGGTTAAGAATAATCATTCGTTTAGAATTAGGACAATCTGGATCTCTGATTGGTGATGATCAAATTTATAACGTAGTAGTAACAGCTCATGCTTTTATTATGATTTTCTTCATAGTGATACCTATTCTAATTGGTGGGTTTGGAAATTGATTAGTTCCATTAATACTAGGAGCAGCTGATATAGCTTTCCCTCGTATAAATAATATAAGATTTTGATTTCTAATTCCAGCATTAATTATATTATTATCTAGATCTTTAGTTGAAAGAGGAGCTGGAACAGGTTGAACTGTTTATCCTCCATTATCTAGGAATATTGCCCATGCTGGAAGGTCAGTTGATTTTGCTATTTTTTCATTACATTTAGCAGGAGTGAGTTCAATTCTTGGTGCAGTAAATTTTATTAGAACTTTAGGAAATTTACGAGTATTTGGAATACTATTAGATCGAATACCTTTATTTGCATGAGCTGTTTTAATTACTGCTGTTTTATTACTATTATCTTTACCTGTGTTAGCAGGAGCTATTACTATGTTATTAACTGATCGAAATTTAAATACTACTTTCTATGATGTTGGTGGTGGTGGAGATCCAATTCTTTATCAGCATTTATTT</t>
   </si>
   <si>
-    <t>OPG_048_TS04242487_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>38.3%</t>
   </si>
   <si>
@@ -769,9 +562,6 @@
     <t>GCTTGATCAGGATGGTTGGCACAGGTTTAAGAATAATCATTCGGATAGAGTTAGGCCAAGCAGGCAGGTTGATTGGGGACGATCAAATTTATAACGTCGTTGTTACTGCTCACGCATTCATTATAATTTTCTTTATAGTTATACCAATTCTAATTGGGGGGTTTGGTAATTGGTTAGTGCCGCTAATACTTGGCGCTGCCGATATGGCTTTTCCTCGAATAAATAATATAAGATTCTGATTTTTAATACCAGCTTTAGTGATATTATTGACAAGGTCATTAGTAGAGAGAGGGGCGGGAACTGGTTGAACAGTTTATCCCCCCCTTTCTAGAAACATTGCTCATAGGGGTAGATCAGTTGATTTTGCAATTTTTTCTCTACATTTGGCAGGTGTAAGTTCTATTTTAGGGGCAGTAAACTTTATTAGAACTTTAGGAAATTTACGAGTTTTTGGTATGATCTTAGATCGGATACCATTATTTGCTTGAGCTGTATTAATTACTGCGGTCTTACTTCTTCTATCTTTACCTGTTTTAGCGGGCGCTATTACCATACTATTAACCGATCGTAATCTGAATTCATCATTCTACGATGCGAGAGGCGGGGGAGATCCTATTTTGTACCAACATCTTTTT</t>
   </si>
   <si>
-    <t>OPG_051_TS04242490_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>34.3%</t>
   </si>
   <si>
@@ -784,9 +574,6 @@
     <t>TCAGGAATAATTGGTACAGGCTTAAGAATGATTATTCGACTAGAATTGGGTCAAGCAGGTTCATTAATTGGAGATGACCAGATTTATAATGTAGTAGTCACTGCACACGCATTTATTATAATTTTTTTTATAGTTATACCAATTTTAATTGGAGGATTTGGAAATTGACTTGTCCCTTTAATATTAGGAGCAGCTGACATAGCTTTCCCTCGAATAAATAATATAAGATTTTGATTTTTAATGCCTGCCTTAATTATATTATTGTCTAGATCTTTAGTTGAAAGAGGAGCTGGGACTGGGTGAACAGTCTATCCTCCCTTATCTAGTAATGTAGCCCACGCGGGAGGTTCAGTAGATTTTGCTATTTTTTCACTACATCTAGCAGGTGTCAGATCTATTTTAGGAGCAGTTAACTTTATTAGAACTTTAGGTAATTTACGAGTATTTGGAATACTTTTAGATCGTATCCCACTATTTGCATGATCTGTCTTAGTAACTGCAGTTCTTCTATTATTATCTTTACCAGTTTTAGCAGGGGCTATTACTATATTGTTAACAGATCGTAATTTGAACACATCTTTTTATGACGTGGGAGGAGGAGGAGACCCAATTCTTTATCAACATTTATTC</t>
   </si>
   <si>
-    <t>OPG_052_TS04242491_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>32.0%</t>
   </si>
   <si>
@@ -799,9 +586,6 @@
     <t>TCCGGATAATTGGAACAGGGTTAAGAATAATCATTCGTTTAGAATTAGGACAATCTGGATCTCTGATTGGTGATGATCAAATTTATAACGTAGTAGTAACAGCTCATGCTTTTATTATAATTTTCTTCATAGTGATACCTATTCTAATTGGTGGGTTTGGAAATTGATTGGTTCCATTAATACTAGGAGCAGCTGATATAGCTTTCCCTCGTATAAATAATATAAGATTTTGATTTCTAATTCCAGCATTAATTATATTATTATCTAGATCTTTAGTTGAAAGAGGAGCTGGAACAGGTTGAACTGTTTATCCTCCATTATCTAGGAATATTGCCCATGCTGGAAGGTCAGTTGATTTTGCTATTTTTTCATTACATTTGGCAGGAGTGAGTTCAATTCTTGGTGCAGTAAATTTTATTAGAACTTTAGGAAATTTACGAGTATTTGGAATACTATTAGATCGAATACCTTTATTTGCATGAGCTGTTTTAATTACTGCTGTTTTATTACTATTATCTTTACCTGTGTTAGCAGGAGCTATTACTATGTTATTAACTGATCGAAATTTAAATACTACATTCTATGATGTTGGTGGTGGTGGGGATCCAATTCTTTATCAGCATTTATTT</t>
   </si>
   <si>
-    <t>OPG_055_TS04242492_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>31.2%</t>
   </si>
   <si>
@@ -811,18 +595,9 @@
     <t>GGAGCTTGATCCGGATAATTGGGACAGGATTAAGAATAATTATTCGATTGGAATTAGGACAATCTGGATCCTTAATTGGTGATGATCAGATCTATAATGTAGTAGTAACAGCTCATGCATTTATTATGATTTTTTTTATAGTGATGCCTATTTTAATTGGAGGATTTGGAAATTGATTAGTTCCATTAATATTAGGAGCAGCTGATATAGCCTTTCCTCGTATAAATAATATAAGATTTTGATTTTTAATTCCGGCATTGATTATGTTATTATCTAGATCTTTAGTTGAAAGAGGTGCAGGAACAGGTTGAACTGTTTATCCTCCACTATCTAGAAATATTGCTCATGCTGGAAGATCAGTTGATTTTGCAATTTTTTCTTTACATTTAGCAGGAGTAAGTTCAATTCTAGGTGCAGTTAACTTTATTAGAACTTTAGGAAATTTACGAGTATTTGGTATATTGTTAGATCGAATACCTTTATTTGCATGGGCTGTTTTAATCACTGCCATCTTATTATTATTATCTTTACCTGTTTTAGCAGGAGCTATTACTATATTACTAACTGATCGAAATTTAAATACTACTTTTTATGATGTTGGTGGTGGGGGAGATCCTATTTTATATCAACATTTATTT</t>
   </si>
   <si>
-    <t>OPG_056_TS04242493_LCO1490.ab1</t>
-  </si>
-  <si>
-    <t>OPG_057_TS04242494_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>TCCGGATAATTGGAACAGGGTTAAGAATAATCATTCGTTTAGAATTAGGACAATCTGGATCTCTGATTGGTGATGATCAAATTTATAACGTAGTAGTAACAGCTCATGCTTTTATTATAATTTTTTTCATAGTGATACCTATTTTAATTGGTGGGTTTGGAAATTGATTAGTTCCATTAATACTAGGAGCAGCTGATATAGCTTTCCCTCGTATAAATAATATAAGATTTTGATTTCTAATTCCAGCATTAATTATATTATTATCTAGATCTTTAGTTGAGAGAGGTGCTGGAACAGGTTGAACTGTTTATCCTCCATTATCTAGGAATATTGCCCATGCTGGAAGGTCAGTTGATTTTGCTATTTTTTCATTACATTTAGCAGGAGTGAGTTCAATTCTTGGTGCAGTAAATTTTATTAGGACTTTAGGAAATTTACGAGTATTTGGAATACTATTAGATCGAATACCTTTATTTGCATGAGCTGTTTTAATTACTGCTGTTTTATTACTATTATCTTTACCTGTGTTAGCAGGAGCTATTACTATATTATTAACTGATCGAAATTTAAATACTACATTCTATGATGTTGGTGGTGGTGGAGATCCAATTCTTTATCAGCATTTATTT</t>
   </si>
   <si>
-    <t>OPG_085_TS04242480_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>40.6%</t>
   </si>
   <si>
@@ -832,18 +607,12 @@
     <t>TGCTGGGGCATGAGCCGGACTAATTGGCACTGCTTTAAGAATAATTATTCGATTAGAGTTAGGAAATCCTGGGTCTTTAATTGGTGATGACCAGATTTATAATGTAGTCGTCACTGCCCATGCTTTTGTTATAATTTTTTTCATGGTTATGCCCGTGTTAATTGGGTGTTTTGGTAACTGACTAGTGCCGCTAATGTTGGGTGCTCCCGACATGGCCTTTCCTCGGATGAATAATATAAGGTTTTGATTTTTACTGCCAGCTTTAATTTTGCTCCTAATAAGAGGAATAGTAGAAAGAGGGGCAGGCACAGGTTGAACAGTTTATCCTCCATTAAGGTCAAATATTGCTCATAGGGGGATATCTGTAGATTTTGCAATTTTTTCTCTCCATCTTGCGGGAATTTCTTCATTGTTGGGGGCAGTTAATTTTATCAGAACTTTAGGAAATTTGCGTTCTTTGGGAATGGTACTAGAAAGCATACCTCTCTTTGCTTGGGCTGTGCTAATCACTGCGGTGTTACTTTTACTTTCTTTACCCGTGCTAGCAGGGGCTATCACTATGCTTTTAACTGATCGTAACCTGAACACTGCTTTTTATGATGTTGCTGGAGGGGGAGATCCCGTGTTATACCAACATTTGTTT</t>
   </si>
   <si>
-    <t>OPG_094_TS04242489_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>92.8%</t>
   </si>
   <si>
     <t>GGAATAGTTGGGACAGGGCTCAGTATAATTATCCGAATGGAGTTGGGCCAAGCAGGAAGACTAATTGGGGATGATCAGATTTACAATGTCGTGGTTACAGCTCACGCATTTATTATAATTTTTTTCATGGTTATGCCTATTCTTATTGGGGGGTTTGGTAACTGATTAGTTCCTTTGATATTAGGGGCGGCGGATATAGCTTTCCCCCGTATAAATAATATAAGGTTTTGGTTCTTAATACCAGCGTTGATCATGCTTCTATCTAGGTCTCTGGTTGAAAGAGGGGCTGGGACAGGGTGAACAGTGTACCCACCCCTTTCTAGAAATGTGGCGCACGCTGGTAGGTCTGTTGATTTTGCCATTTTTTCTCTTCACTTGGCCGGGGTCAGTTCAATTTTAGGCGCCGTTAATTTTATTAGAACTTTGGGTAATTTGCGAGTGTTCGGCATGATCTTAGACCGAATGCCACTATTCGCCTGATCTGTATTGATTACCGCCGTGTTGTTGCTTCTATCCCTTCCTGTGCTGGCCGGGGCAATTACTATACTTTTAACTGACCGTAACTTAAACTCTTCTTTCTATGACACAAGAGGGGGTGGTGACCCAATTCTATACCAGCATTTATTC</t>
   </si>
   <si>
-    <t>OPG_107_TS04242495_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>41.0%</t>
   </si>
   <si>
@@ -856,9 +625,6 @@
     <t>GAGCTTGATCAGGAATGGTAGGCACTGGGCTTAGGATAATTATTCGTATAGAATTAGGGCAAGCAGGAAGGCTCATTGGAGATGATCAAATTTATAATGTAGTGGTGACAGCTCACGCTTTCATTATGATTTTTTTCATAGTTATGCCTATTCTGATTGGAGGGTTCGGAAACTGATTAGTACCCCTTATGTTAGGAGCGGCGGATATGGCCTTTCCTCGAATAAATAATATAAGATTCTGGTTTCTTATACCAGCCTTAATTATGCTTTTAACTAGGTCGCTAGTAGAAAGAGGAGCAGGGACCGGGTGAACTGTTTACCCCCCTCTCTCTAGAAACATCGCACACGCGGGCAGGTCTGTAGATTTCGCCATTTTCTCTTTACATTTAGCGGGGGTAAGTTCGATTTTAGGCGCAGTTAATTTTATTAGAACGTTGGGAAACCTTCGAGTGTTCGGAATGATTTTAGACCGAATGCCTTTATTTGCATGAGCCGTATTAATTACAGCGGTTTTACTACTGTTGTCACTACCTGTTCTAGCAGGGGCAATTACAATACTTCTAACTGATCGTAATCTAAATTCATCTTTCTACGACGCTAGAGGAGGAGGAGACCCTATTTTATATCAGCATTTATT</t>
   </si>
   <si>
-    <t>OPG_108_TS04242496_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>56.8%</t>
   </si>
   <si>
@@ -868,18 +634,12 @@
     <t>TTGGTCTGGGATGATTGGGACTGGCTTAAGAATAATTATTCGAATAGAGTTAGGACAACCGGGATCTCTAATTGGAGATGATCAAATTTATAATGTGGTTGTTACTGCTCATGCCTTTATCATAATTTTTTTTATGGTTATACCTATTCTAATTGGAGGGTTTGGTAATTGGTTAGTCCCACTCATATTAGGTGCTCCGGATATAGCCTTCCCCCGTTTAAACAATATAAGATTTTGATTTTTAGTACCTGCTTTAATTCTCTTATTGTCGAGCTCTCTGGTAGAGAGAGGAGCAGGAACAGGGTGAACAGTGTACCCTCCTCTTTCTTTAGCCATTGCTCATGCAGGCATGTCTGTAGATTTTGCTATTTTTTCTTTACACTTAGCTGGAATCTCGTCTCTCTGGGGGGCTGTAAATTTTATTAGCACTTTAGGAAATTTACGTACTCTGGGTTTAATAATAGACCGAATACCTCTATTTGCTTGGGCTGTCTTAGTCACAGCCATTCTACTCCTTCTGTCACTACCCGTGCTAGCGGGAGCAATTACTATACTTTTAACGGACCGTAATCTTAACACCTCTTTTTATGATGTGAGAGGAGGAGGAGACCCAGTTCTCTACCAACATTTGTTT</t>
   </si>
   <si>
-    <t>OPG_127_TS04253724_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>59.9%</t>
   </si>
   <si>
     <t>GTCAAGCTGGTTTTTTAATTGGAGATGATCAAATATATAACGTTGTAGTAACTGCACACGCATTTATTATAATTTTTTTTATAGTTATGCCTATTTTAATTGGAGGATTTGGAAACTGATTGGTCCCTTTAATATTGGGTGCAGCAGATATGGCATTTCCTCGTATAAATAATATGAGATTCTGGTTCTTAATGCCAGCTTTAATTATACTTTTGTCAAGATCTCTGGTTGAAAGGGGCGCAGGTACTGGGTGAACCGTGTACCCCCCCCTATCCAGAAATGTAGCCCATGCTGGAGCTTCTGTCGACTTTGCTATTTTTTCGTTACATTTAGCTGGGGTGAGATCTATTTTAGGGGCTGTAAATTTTATTAGAACCCTTGGCAATCTTCGAGTGTTTGGTATATTACTTGATCGAATGCCTCTTTTTGCCTGGGCTGTTCTAATTACTGCGGTCTTACTTCTCTTATCTCTCCCTGTTTTGGCCGGGGCAATTACAATACTACTTACAGACCGAAACCTAAATACGACATTTTATGATGTAGGGGGCGGAGGAGACCCTATTTTATATCAGCACCTATTT</t>
   </si>
   <si>
-    <t>OPG_128_TS04253715_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>70.0%</t>
   </si>
   <si>
@@ -889,18 +649,12 @@
     <t>GTGAGCGGGGCTCGTGGGCACTGCCTTAAGTATAATTATTCGACTAGAGCTTGGAAGAGCTGGAAGATTAATTGGAGACGACCAAATTTATAACACTATTGTGACGGCCCATGCCTTTATTATAATTTTCTTTATAGTGATGCCCATCTTGATTGGGTGTTTTGGGAATTGACTAGTTCCTCTAATGTTAGGGGCACCGGACATAGCTTTCCCTCGTCTCAATAATATGAGATTTTGGTTCTTATTACCTGCCCTAGTATTACTTTTATCAAGGAGAATAGTAGAGAGAGGGGCTGGCACAGGATGAACGGTGTACCCTCCTCTGAGGAGAAACCTTGGGCACAGGGGCAGCTCTGTCGACTTTGCTATTTTTTCGTTACACCTGGCAGGGATTTCTTCTTTGTTGGGAGCTGTAAACTTTATTAGTACTCTCGGAAACTTGCGAATATTTAGCATAGGGCTTGACAAAGTCCCTTTATTTGGCTGAGCTGTGTTTATCACAGCTGTGCTTCTTCTACTTTCTTTACCAGTGCTGGCAGGGGCTATCACCATGCTTCTGACGGATCGAAACTTAAATTCTAGTTTTTATGACGTGGGAGGCGGGGGTGATCCTGTTTTGTACCAGCATTTGTTT</t>
   </si>
   <si>
-    <t>OPG_128_TS04253739_LCO_1490-2.ab1</t>
-  </si>
-  <si>
     <t>43.9%</t>
   </si>
   <si>
     <t>GGTGAGCGGGGCTCGTGGGCACTGCCTTAAGTATAATTATTCGACTAGAGCTTGGAAGAGCTGGAAGATTAATTGGAGACGACCAAATTTATAACACTATTGTGACGGCCCATGCCTTTATTATAATTTTCTTTATAGTGATGCCCATCTTGATTGGGTGTTTTGGGAATTGACTAGTTCCTCTAATGTTAGGGGCACCGGACATAGCTTTCCCTCGTCTCAATAATATGAGATTTTGGTTCTTATTACCTGCCCTAGTATTACTTTTATCAAGGAGAATAGTAGAGAGAGGGGCTGGCACAGGATGAACGGTGTACCCTCCTCTGAGGAGAAACCTTGGGCACAGGGGCAGCTCTGTCGACTTTGCTATTTTTTCGTTACACCTGGCAGGGATTTCTTCTTTGTTGGGAGCTGTAAACTTTATTAGTACTCTCGGAAACTTGCGAATATTTAGCATAGGGCTTGACAAAGTCCCTTTATTTGGCTGAGCTGTGTTTATCACAGCTGTGCTTCTTCTACTTTCTTTACCAGTGCTGGCAGGGGCTATCACCATGCTTCTGACGGATCGAAACTTAAATTCTAGTTTTTATGACGTGGGAGGCGGGGGTGATCCTGTTTTGTACCAGCATTTGTTT</t>
   </si>
   <si>
-    <t>OPG_134_TS04242500_L1384.ab1</t>
-  </si>
-  <si>
     <t>41.5%</t>
   </si>
   <si>
@@ -913,9 +667,6 @@
     <t>AGACATAAGAGTCATCATCCGAATTCAACTTTCATACCCCACGGGATTTTTGTGTAATGAGCAACTTTATAACGTAATCGTGACTGCTCATGCTTTTATTATAATTTTTTTCATAGTAATACCTATCTTAATTGGTTGTTTTGGCAACTGGCTGGTGCCACTGATAATTGGCTCTCCAGATATAGCTTTTCCACGGCTAAATAACATGAGTTATTGGCTACTTGTGCCTGCCTTATTTTTGCTTCTAGTTGGCTCTATAGTGGAGTCCGGAGCTGGCACAGGTTGAACTGTTTACCCCCCCCTGAGTTCTTATATTTTTCACGGAGGCGCATCTGTGGACTTTACAATTTTTAGACTCCACTTAGCTGGAGTTTCTTCGCTTCTAGGGGCAGTGAACTTTATCAGAACTGTTTTAAATTTACGGGCATTAGGAATGTTAATAGATCGTATACCTTTGTTCCCGTGAGCGGTATTTATTACTGCTATTTTGCTCCTTTTGTCCCTCCCTGTTTTAGCAGGCGCCATCACTATACTATTAACAGACCGGAATTTAAACACGTCTTTCTATGACCCTATAGGTGGGGGGGACCCCGTCCTTTACCAGCACTTATTTTGATTTTTTGGTCATCCTGAGGTTTACATTTTGATTCTTCCAGGGTTCGGCCTCATTTCTCACATTGTTAGTCAGGAAAGAGGGAAAAATGAACCTTTTGGTGCTCTAGGTATAATCTATGCAATAAGAGCTATCGGAGTATTGGGTTTTGTTGTTTGAGCTCACCACATATTTACGGTAGGTATGGACACAGATACCCGGGGCATACTTTACCACTGCTACAATAATCATCGCAGTTCCCACTGGGTATTAAAATCTTTAGATGAGTGAGCACATACCACGGAGCGAAGC</t>
   </si>
   <si>
-    <t>OPG_134_TS04253734_L_1384.ab1</t>
-  </si>
-  <si>
     <t>41.4%</t>
   </si>
   <si>
@@ -925,9 +676,6 @@
     <t>AGCATAAGAGTCATCATCCGAATTCAACTTTCATACCCCACGGGATTTTTGTGTAATGAGCAACTTTATAACGTAATCGTGACTGCTCATGCTTTTATTATAATTTTTTTCATAGTAATACCTATCTTAATTGGTTGTTTTGGCAACTGGCTGGTGCCACTGATAATTGGCTCTCCAGATATAGCTTTTCCACGGCTAAATAACATGAGTTATTGGCTACTTGTGCCTGCCTTATTTTTGCTTCTAGTTGGCTCTATAGTGGAGTCCGGAGCTGGCACAGGTTGAACTGTTTACCCCCCCCTGAGTTCTTATATTTTTCACGGAGGCGCATCTGTGGACTTTACAATTTTTAGACTCCACTTAGCTGGAGTTTCTTCGCTTCTAGGGGCAGTGAACTTTATCAGAACTGTTTTAAATTTACGGGCATTAGGAATGTTAATAGATCGTATACCTTTGTTCCCGTGAGCGGTATTTATTACTGCTATTTTGCTCCTTTTGTCCCTCCCTGTTTTAGCAGGCGCCATCACTATACTATTAACAGACCGGAATTTAAACACGTCTTTCTATGACCCTATAGGTGGGGGGGACCCCGTCCTTTACCAGCACTTATTTTGATTTTTTGGTCATCCTGAGGTTTACATTTTGATTCTTCCAGGGTTCGGCCTCATTTCTCACATTGTTAGTCAGGAAAGAGGGAAAAATGAACCTTTTGGTGCTCTAGGTATAATCTATGCAATAAGAGCTATCGGAGTATTGGGTTTTGTTGTTTGAGCTCACCACATATTTACGGTAGGTATGGACACAGATACCCGGGCATACTTTACCACTGCTACAATAATCATCGCAGTTCCCACTGGTATTAAAATCTTTAGATGAGTGAGCACATACCACGGAGCGAAGC</t>
   </si>
   <si>
-    <t>OPG_134_TS04253735_L1384.ab1</t>
-  </si>
-  <si>
     <t>41.3%</t>
   </si>
   <si>
@@ -946,9 +694,6 @@
     <t>L1384</t>
   </si>
   <si>
-    <t>9.2_Crabes_TS03703290_Lobo F1.ab1</t>
-  </si>
-  <si>
     <t>36.9%</t>
   </si>
   <si>
@@ -961,9 +706,6 @@
     <t>GAAGCTTGAGCTGGGAATAGTTGGTACTTCATTAAGTTTAATTATTCGAGCTGAATTGGGACAACCTGGAAGTTTAATTGGAGATGACCAGATTTACAATGTTGTTGTAACAGCTCATGCTTTTGTTATGATTTTCTTTATAGTTATGCCTATTTTAATTGGAGGTTTTGGAAACTGATTAGTTCCATTAATGCTTGGAGCCCCAGATATGGCTTTCCCTCGAATGAATAATATAAGGTTTTGACTTCTTCCCCCCGCATTAACTCTCCTTTTAATAAGAGGTCTAGTTGAAAGAGGTGTGGGTACAGGATGAACTGTTTATCCTCCCTTATCAGCTAATATTGCTCATGCAGGAGCTTCTGTAGACATGGGAATTTTTTCTCTTCACCTGGCTGGAGTTTCTTCCATTTTAGGTGCTGTGAATTTTATCTCTACAATTATTAACATACGATCTAATGGGATAACTTTTGATCGATTACCTCTTTTCGTTTGATCTGTGTTTATTACAGCGATCTTACTTTTACTATCATTACCTGTTTTAGCGGGAGCTATTACCATGTTACTAACAGATCGAAATTTAAACACTTCTTTCTTTGACCCTGCTGGAGGGGGAAACCCTATTCTTTACCAACATTTATTT</t>
   </si>
   <si>
-    <t>9.4_Crabes_TS03703291_Lobo F1.ab1</t>
-  </si>
-  <si>
     <t>37.8%</t>
   </si>
   <si>
@@ -973,54 +715,36 @@
     <t>GAAGCTTGAGCTGGGAATAGTTGGTACTTCATTAAGTTTAATTATTCGAGCTGAATTGGGACAACCTGGAAGTTTAATTGGAGATGACCAGATTTACAATGTTGTTGTAACAGCTCATGCTTTTGTTATGATTTTCTTTATAGTTATGCCTATTTTAATTGGAGGGTTTGGAAACTGATTAGTTCCATTAATGCTTGGAGCCCCAGATATGGCTTTCCCTCGAATGAATAATATAAGATTTTGACTTCTTCCCCCCGCATTAACTCTCCTTTTAATAAGAGGTCTAGTTGAAAGAGGTGTGGGTACAGGATGAACTGTTTATCCTCCCTTATCAGCTAATATTGCTCATGCAGGAGCTTCTGTAGACATGGGAATTTTTTCTCTTCACCTGGCTGGAGTTTCTTCCATTTTAGGGGCTGTGAATTTTATCTCTACAATTATTAACATACGATCTAATGGGATAACTTTTGATCGATTACCCCTTTTCGTTTGATCTGTGTTTATTACAGCGATCTTACTCTTACTATCACTACCTGTCTTAGCGGGAGCTATTACCATGTTACTAACAGATCGAAATTTAAACACTTCTTTCTTTGACCCTGCTGGAGGGGGAGACCCTATTCTTTACCAACATTTATTT</t>
   </si>
   <si>
-    <t>9.7_Crabes_TS03703292_Lobo F1.ab1</t>
-  </si>
-  <si>
     <t>79.8%</t>
   </si>
   <si>
     <t>GAAGCTTGAGCTGGAATAGTTGGTACTTCATTAAGTTTAATTATTCGAGCTGAATTGGGACAACCTGGAAGTTTAATTGGAGATGACCAGATTTACAATGTTGTTGTAACAGCTCATGCTTTTGTTATGATTTTCTTTATAGTTATGCCTATTTTAATTGGAGGGTTTGGAAATTGATTAGTTCCATTAATGCTTGGAGCCCCAGATATGGCTTTCCCTCGAATGAATAATATAAGATTTTGACTTCTTCCCCCCGCATTAACTCTCCTTTTAATAAGAGGTCTAGTTGAAAGAGGTGTGGGTACAGGATGAACTGTTTATCCTCCCTTATCAGCTAATATTGCTCATGCAGGAGCTTCTGTAGACATGGGAATTTTTTCTCTTCACCTGGCTGGAGTTTCTTCCATTTTAGGTGCTGTGAATTTTATCTCTACAATTATTAACATACGATCTAATGGGATAACTTTTGATCGATTACCTCTTTTCGTTTGATCTGTGTTTATTACAGCGATCTTACTCTTACTATCACTACCTGTCTTAGCGGGAGCTATTACCATGTTACTAACAGATCGAAATTTAAACACTTCTTTCTTTGACCCTGCTGGAGGGGGAGACCCTATTCTTTACCAACATTTATTT</t>
   </si>
   <si>
-    <t>9.8_Crabes_TS03703293_Lobo F1.ab1</t>
-  </si>
-  <si>
     <t>54.9%</t>
   </si>
   <si>
     <t>GAAGCTTGAAGCTGGGAATAGTTGGGTAACTTCATTAAGTTTAATTATTCGAGCTGAATTGGGACAACCTGGAAGTTTAATTGGAGATGACCAGATTTACAATGTTGTTGTAACAGCTCATGCTTTTGTTATGATTTTCTTTATAGTTATGCCTATTTTAATTGGAGGGTTTGGAAACTGATTAGTTCCATTAATGCTTGGAGCCCCAGATATGGCTTTCCCTCGAATGAATAATATAAGATTTTGACTTCTTCCCCCCGCATTAACTCTCCTTTTAATAAGAGGTCTAGTTGAAAGAGGTGTGGGTACAGGATGAACTGTTTATCCTCCCTTATCAGCTAATATTGCTCATGCAGGAGCTTCTGTAGACATGGGAATTTTTTCTCTTCACCTGGCTGGAGTTTCTTCCATTTTAGGTGCTGTGAATTTTATCTCTACAATTATTAACATACGATCTAATGGGATAACTTTTGATCGATTACCTCTTTTCGTTTGATCTGTGTTTATTACAGCGATCTTACTCTTACTATCATTACCTGTTTTAGCGGGAGCTATTACCATGTTACTAACAGATCGAAATTTAAACACTTCTTTCTTTGACCCTGCTGGAGGGGGAGACCCTATTCTTTACCAACATTTATTT</t>
   </si>
   <si>
-    <t>9.10_Crabes_TS03703294_Lobo F1.ab1</t>
-  </si>
-  <si>
     <t>47.1%</t>
   </si>
   <si>
     <t>GAAGCTTGAAGCTGGGAATAGTTGGGTAACTTCATTAAGTTTAATTATTCGAGCTGAATTGGGACAACCTGGAAGATTAATTGGAGATGACCAGATTTACAATGTTGTTGTAACAGCTCATGCTTTTGTTATGATTTTCTTTATAGTTATGCCTATTTTAATTGGAGGGTTTGGAAACTGATTAGTTCCATTAATGCTTGGAGCCCCAAATATGGCTTTCCCTCGAATGAATAATATAAGATTTTGACTTCTTCCCCCCGCATTAACTCTCCTTTTAATAAGAGGTTTAGTTGAAAGAGGTGTGGGAACAGGATGAACTGTTTATCCTCCCTTATCAGCTAATATTGCTCATGCAGGAGCTTCTGTAAAAATGGGAATTTTTTCTCTTCACTTGGCTGGAGTTTCTTCCATTTTAGGGGCTGTGAATTTTATTTCTACAATTATTAACATACGATCTAATGGGATAACTTTTGATCGATTACCTCTTTTTGTTTGATCTGTGTTTATTACAGCAATCTTACTTTTACTATCATTACCTGTTTTAGCGGGAGCTATTACCATGTTACTAACAGATCGAAATTTAAACACTTCTTTCTTTGACCCTGCTGGAGGGGGAAACCCTATTCTTTACCAACATTTATTT</t>
   </si>
   <si>
-    <t>9.11_Crabes_TS03703295_Lobo F1.ab1</t>
-  </si>
-  <si>
     <t>82.5%</t>
   </si>
   <si>
     <t>GAAGCTTGAGCTGGGAATAGTTGGTACTTCATTAAGTTTAATTATTCGAGCTGAATTGGGACAACCTGGAAGTTTAATTGGAGATGACCAGATTTACAATGTTGTTGTAACAGCTCATGCTTTTGTTATGATTTTCTTTATAGTTATGCCTATTTTAATTGGAGGGTTTGGAAACTGATTAGTTCCATTAATGCTTGGAGCCCCAGATATGGCTTTCCCTCGAATGAATAATATAAGATTTTGACTTCTTCCCCCCGCATTAACTCTCCTTTTAATAAGAGGTCTAGTTGAAAGAGGTGTGGGTACAGGATGAACTGTTTATCCTCCTTTATCAGCTAATATTGCTCATGCAGGAGCTTCTGTAGACATGGGAATTTTTTCTCTTCACCTGGCTGGAGTTTCTTCCATTTTAGGTGCTGTGAATTTTATTTCTACAATTATTAACATACGATCTAATGGGATAACTTTTGATCGATTACCTCTTTTCGTTTGATCTGTGTTTATTACAGCGATCTTACTCTTACTATCACTACCTGTCTTAGCGGGAGCTATTACCATGTTACTAACAGATCGAAATTTAAACACTTCTTTCTTTGACCCTGCTGGAGGGGGAGACCCTATTCTTTACCAACATTTATTT</t>
   </si>
   <si>
-    <t>9.12_Crabes_TS03703296_Lobo F1.ab1</t>
-  </si>
-  <si>
     <t>49.4%</t>
   </si>
   <si>
     <t>GAAGCTTGAGCTGGAATAGTTGGGTACTTCATTAAGTTTAATTATTCGAGCTGAATTGGGACAACCTGGAAGTTTAATTGGAGATGACCAGATTTACAATGTTGTTGTAACAGCTCATGCTTTTGTTATGATTTTCTTTATAGTTATGCCTATTTTAATTGGAGGGTTTGGAAACTGATTAGTTCCATTAATGCTTGGAGCCCCAGATATGGCTTTCCCTCGAATGAATAATATAAGATTTTGACTTCTTCCCCCCGCATTAACTCTCCTTTTAATAAGAGGTCTAGTTGAAAGAGGTGTGGGTACAGGATGAACTGTTTATCCTCCCTTATCAGCTAATATTGCTCATGCAGGAGCTTCTGTAGACATGGGAATTTTTTCTCTTCACTTGGCTGGAGTTTCTTCCATTTTAGGGGCTGTGAATTTTATCTCTACAATTATTAACATACGATCTAATGGGATAACTTTTGATCGATTACCTCTTTTCGTTTGATCTGTGTTTATTACAGCGATCTTACTTTTACTATCATTACCTGTTTTAGCGGGAGCTATTACCATGTTACTAACAGATCGAAATTTAAACACTTCTTTCTTTGACCCTGCTGGAGGGGGAAACCCTATTCTTTACCAACATTTATTT</t>
   </si>
   <si>
-    <t>9.16_Crabes_TS03703298_Lobo F1.ab1</t>
-  </si>
-  <si>
     <t>37.7%</t>
   </si>
   <si>
@@ -1030,9 +754,6 @@
     <t>GAAGCTTGAGCTGGGAATAGTTGGCACTTCATTAAGTTTAATTATTCGAGCTGAATTGGGACAACCTGGAAGTTTAATTGGAGATGACCAGATTTACAATGTTGTTGTAACAGCTCATGCTTTTGTTATGATTTTCTTTATAGTTATGCCTATTTTAATTGGAGGGTTTGGAAACTGATTAGTTCCATTAATGCTTGGAGCCCCAGATATGGCTTTCCCTCGAATGAATAATATAAGATTTTGACTTCTTCCCCCCGCATTAACTCTCCTTTTAATAAGAGGTCTAGTTGAAAGAGGTGTGGGTACAGGATGAACTGTTTATCCTCCCTTATCAGCTAACATTGCTCATGCAGGAGCTTCTGTAGACATGGGAATTTTTTCTCTTCACCTGGCTGGAGTTTCTTCCATTTTAGGTGCTGTGAATTTTATCTCTACAATTATTAACATACGATCTAATGGGATAACTTTTGATCGATTACCTCTTTTTGTTTGATCTGTGTTTATTACAGCGATTTTACTCTTACTATCACTACCTGTCTTAGCGGGAGCTATTACCATGTTACTAACAGATCGAAACTTAAACACTTCTTTCTTTGACCCTGCTGGAGGGGGAGACCCTATTCTTTACCAACATTTATTT</t>
   </si>
   <si>
-    <t>9.20_Crabes_TS03703299_Lobo F1.ab1</t>
-  </si>
-  <si>
     <t>36.6%</t>
   </si>
   <si>
@@ -1042,9 +763,6 @@
     <t>GAAGCTTGAAGCTGGGAATAGTTGGTAACTTCATTAAGTTTAATTATTCGAGCTGAATTGGGACAACCTGGAAGTTTAATTGGAGATGACCAGATTTACAATGTTGTTGTAACAGCTCATGCTTTTGTTATGATTTTCTTTATAGTTATGCCTATTTTAATTGGAGGGTTTGGAAACTGATTAGTTCCATTAATGCTTGGAGCCCCAGATATGGCTTTCCCTCGAATGAATAATATAAGATTTTGACTTCTTCCCCCCGCATTAACTCTCCTTTTAATAAGAGGTCTAGTTGAAAGAGGTGTGGGTACAGGATGAACTGTTTATCCCCCCTTATCAGCTAATATTGCTCATGCAGGAGCTTCTGTAGATATGGGAATTTTTTCTCTTCACTTGGCTGGAGTTTCTTCCATTTTAGGGGCTGTGAATTTTATTTCTACAATTATTAACATACGATCTAATGGGATAACTTTTGATCGATTACCTCTTTTCGTTTGATCTGTGTTTATTACAGCGATCTTACTTTTACTATCATTACCTGTTTTAGCGGGAGCTATTACCATGTTACTAACAGATCGAAATTTAAACACTTCTTTCTTTGACCCTGCTGGAGGGGGAAACCCTATTCTTTACCAACATTTATTT</t>
   </si>
   <si>
-    <t>OPG_137_TS04253704_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>34.9%</t>
   </si>
   <si>
@@ -1054,9 +772,6 @@
     <t>TTCGGGGCATGAGCTGGAATAGTTGGAACTTCTTTAAGTTTAATTATTCGAGCAGAGTTAGGACAACCAGGTAGATTGATTGGAGACGATCAAATTTATAATGTAGTCGTTACAGCACATGCTTTCGTAATGATTTTTTTTATGGTTATACCTATTATAATTGGAGGATTTGGAAACTGACTAGTTCCTCTTATATTAGGTGCACCAGATATAGCATTTCCACGAATAAATAACATAAGATTCTGACTCCTTCCTCCCTCATTAACACTACTATTAGGAAGAGGCCTAGTTGAAAGAGGAGTTGGAACAGGATGAACAGTTTATCCTCCTTTATCAGCAGGTATTGCACATGCTGGAGCATCTGTAGATATAGGAATCTTTTCTTTACATATTGCAGGAGCTTCTTCAATTTTAGGAGCTGTAAATTTTATTACTACTGTAATTAATATACGAGCAGCAGGTATAACTATAGACCGTATTCCTTTATTTGTTTGATCAGTTTTTATTACAGCAATTCTATTACTTTTATCTCTACCAGTTTTAGCAGGAGCTATTACTATATTATTAACTGACCGTAATCTTAATACCTCATTCTTTGATCCTGCTGGAGGAGGGGATCCTATTTTATACCAACATTTATTT</t>
   </si>
   <si>
-    <t>OPG_138_TS04253705_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>37.0%</t>
   </si>
   <si>
@@ -1069,18 +784,12 @@
     <t>AGTTTGATTATCCGTGCTGAGTTAGGGCAGCCAGGGACCTTAATTGGCAATGATCAAATTTATAATGTAGTTGTAACTGCTCACGCCTTTGTTATAATTTTCTTTATGGTTATACCAATTATAATTGGAGGATTTGGTAATTGACTTGTTCCTTTAATATTGGGAGCCCCCGATATAGCTTTCCCTCGTATGAATAATATAAGATTCTGATTACTGCCTCCTTCTTTAACTCTCCTTCTTATAAGAGGTATAGTTGAAAGAGGTGTTGGTACTGGATGAACTGTTTACCCTCCCTTATCGGCTGCTATTGCCCACGCTGGAGCTTCAGTTGACCTTGGTATTTTTTCTCTTCACTTAGCAGGAGTTTCTTCTATTTTAGGAGCTGTAAATTTTATAACAACTGTTATTAATATACGTTCTTTTGGTATGATAATGGATCAAATACCTTTATTTGTTTGAGCTGTGTTTATTACCGCCATCCTTCTTTTATTATCTCTGCCCGTTTTAGCAGGTGCTATTACTATATTACTTACCGACCGTAATTTGAATACTTCTTTCTTTGATCCTGCTGGAGGAGGAGATCCTGTCCTATATCAGCATTTATTC</t>
   </si>
   <si>
-    <t>OPG_140_TS04253706_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>97.9%</t>
   </si>
   <si>
     <t>ATGGTAGGTACTTCTTTGAGTTTGATTATCCGTGCTGAGTTAGGGCAGCCAGGGACCTTAATTGGCAATGATCAAATTTATAATGTAGTTGTAACTGCTCACGCCTTTGTTATAATTTTCTTTATGGTTATACCAATTATAATTGGAGGATTTGGTAATTGACTTGTTCCTTTAATATTGGGAGCCCCCGATATAGCTTTCCCTCGTATGAATAATATAAGATTCTGATTACTGCCTCCTTCTTTAACTCTCCTTCTTATAAGAGGTATAGTTGAAAGAGGTGTTGGTACTGGATGAACTGTTTACCCTCCCTTATCGGCTGCTATTGCCCACGCTGGAGCTTCAGTTGACCTTGGTATTTTTTCTCTTCACTTAGCAGGAGTTTCTTCTATTTTAGGAGCTGTAAATTTTATAACAACTGTTATTAATATACGTTCTTTTGGTATGATAATGGATCAAATACCTTTATTTGTTTGAGCTGTGTTTATTACCGCCATCCTTCTTTTATTATCTCTGCCCGTTTTAGCAGGTGCTATTACTATATTACTTACCGACCGTAATTTGAATACTTCTTTCTTTGATCCTGCTGGAGGAGGAGATCCTGTCCTATATCAGCATTTATTC</t>
   </si>
   <si>
-    <t>OPG_141_TS04253707_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>36.5%</t>
   </si>
   <si>
@@ -1093,9 +802,6 @@
     <t>TGAGCTGGTATAGTTGGAACATCCCTAAGATTAATTATTCGAGCAGAATTAGGACAACCTGGGAGGTTAATTGGAGATGACCAAATTTATAATGTTGTAGTTACTGCTCATGCCTTTGTTATAATTTTCTTTATAGTAATACCTATTATAATTGGAGGATTTGGAAACTGATTGGTCCCCCTAATGCTTGGAGCGCCAGATATGGCATTTCCACGTATGAATAATATAAGATTTTGATTACTTCCCCCATCTCTAACACTCCTTCTTATAAGAGGGATAGTTGAAAGAGGAGTCGGAACGGGATGAACAGTTTATCCACCTTTATCAGCAGCTATTGCCCACGCAGGAGCCTCTGTAGATATAGGAATTTTTTCACTACACTTAGCTGGTGTATCTTCTATTCTAGGAGCCGTTAATTTTATAACCACAGTTATCAATATACGACCTGTTGGAATAACTATAGACCGTATACCTCTTTTTGTATGATCAGTTTTTATTACCGCAATTCTTTTATTATTATCACTTCCTGTCTTAGCAGGAGCTATTACCATATTATTAACAGATCGAAATTTGAATACCTCCTTTTTTGACCCTGCTGGAGGAGGAGATCCTATTTTATACCAACATTTATTT</t>
   </si>
   <si>
-    <t>OPG_142_TS04253708_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>85.0%</t>
   </si>
   <si>
@@ -1105,9 +811,6 @@
     <t>GAGCTGGTATAGTAGGCACTTCACTAAGGCTTATTATTCGAGCTGAACTAGGACAACCCGGAAGGTTGATTGGTAACGATCAAATTTATAATGTTATTGTTACAGCTCACGCATTTGTTATAATTTTCTTTATAGTTATACCTATTATAATTGGAGGATTTGGAAACTGATTAGTACCCCTTATATTAGGAGCCCCCGATATAGCTTTTCCCCGAATAAATAATATAAGATTTTGATTATTACCCCCTTCTCTAACACTTTTACTTATAAGAGGAATAGTAGAAAGAGGAGTAGGAACAGGATGAACTGTTTATCCTCCCCTCTCTGCTAGAATTGCTCATGCTGGAGCTTCGGTTGATATAGGAATTTTTTCTCTTCATCTAGCCGGGGTTTCTTCTATTCTAGGTGCCATTAACTTTATAACAACAGTTATTAACATACGACCGATCGGGATAACAATAGATCGTATACCTTTATTTGTATGGTCAGTTTTCATTACTGCCGTTCTATTACTCTTATCTTTGCCAGTACTTGCTGGTGCAATTACTATACTTTTAACAGACCGAAACCTTAATACTTCTTTTTTTGACCCTGCAGGAGGTGGAGACCCTATTCTTTATCAACATTTATTT</t>
   </si>
   <si>
-    <t>OPG_143_TS04253709_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>35.2%</t>
   </si>
   <si>
@@ -1120,9 +823,6 @@
     <t>GCTGGAATAGTAGGTACTTCTTTAAGCTTAATTATTCGAGCTGAGTTAGGACAACCAGGAAACTTAATTGGTGATGATCAAATCTATAACGTGGTTGTTACTGCACATGCTTTTGTCATAATTTTTTTTATAGTTATACCTATTATAATTGGAGGATTTGGGAATTGATTAGTACCTTTAATATTAGGTGCTCCTGACATAGCTTTCCCTCGAATAAATAATATAAGATTCTGGTTACTTCCACCTTCTTTAACTTTATTGCTTATAAGTGGGATAGTAGAAAGAGGAGTAGGAACGGGATGGACAGTTTATCCTCCTTTATCAGCAGCAATCGCTCATGCGGGGGCATCTGTAGATTTAGGGATTTTTTCTTTACATTTAGCAGGAGTGTCTTCTATTTTAGGTGCTATTAATTTTATAACAACTGTTATTAATATACGACCTCATGGGATAACCTTAGATCGAATACCCTTATTCGTATGGTCTGTGTTTATTACTGCTATTCTTCTTCTTCTCTCTTTACCAGTTTTAGCAGGGGCTATTACTATATTATTAACTGATCGAAATCTTAATACTTCTTTTTTTGATCCTGCTGGTGGTGGGGATCCTGTTCTATACCAACATCTGTTT</t>
   </si>
   <si>
-    <t>OPG_144_TS04253710_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>87.1%</t>
   </si>
   <si>
@@ -1132,9 +832,6 @@
     <t>GCCGGATAGTAGGTACATCTTTAAGATTAATTATTCGAGCAGAATTAGGACAACCAGGAAGATTAATTCGGAGATGATCAAATTTATAATGTTGTAGTCACCGCACATGCATTCGTAATAATTTTTTTCATAGTAATACCTATTATAATTGGAGGATTTGGAAATTGATTAGTGCCCCTAATACTTGGGGCTCCAGATATAGCATTTCCTCGTATAAATAATATAAGATTCTGACTCCTACCTCCCTCGCTAACGCTTTTATTAATAAGAGGAATAGTAGAAAGAGGAGTAGGAACAGGGTGAACTGTATACCCACCACTATCAGCAGCTATTGCCCACGCAGGTGCATCTGTAGATATAGGAATTTTCTCTTTACATTTAGCAGGGGTGTCATCTATTTTAGGTGCCGTAAATTTTATAACTACAGTTATTAATATACGACCTATTGGTATAACTATAGACCGTATACCTCTTTTTGTTTGATCAGTATTTATTACTGCTATTTTATTACTTTTATCACTTCCAGTTTTAGCAGGAGCAATTACGATATTATTAACAGATCGAAATCTAAATACATCATTTTTTGATCCAGCAGGAGGAGGAGACCCCATTTTATATCAACACTTATTT</t>
   </si>
   <si>
-    <t>OPG_145_TS04253711_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>34.5%</t>
   </si>
   <si>
@@ -1144,9 +841,6 @@
     <t>GCCGGATAGTAGGTACATCTTTAAGATTAATTATTCGAGCAGAATTAGGACAACCAGGAAGATTAATTGGAGATGATCAAATTTATAATGTTGTAGTCACCGCGCATGCATTCGTAATAATTTTTTTCATAGTAATACCTATTATAATTGGAGGATTTGGAAATTGATTAGTGCCCCTAATACTTGGGGCTCCAGATATAGCATTTCCTCGTATAAATAATATAAGATTCTGACTCCTACCTCCCTCGCTAACGCTTTTATTAATAAGAGGAATGGTAGAAAGAGGAGTAGGAACAGGATGAACTGTATATCCACCACTATCAGCAGCTATTGCCCACGCAGGTGCATCTGTAGATATAGGAATTTTCTCTTTACATTTAGCAGGGGTATCATCTATTTTAGGTGCCGTAAATTTTATAACTACAGTTATTAATATACGACCTATTGGTATAACTATAGACCGTATACCTCTTTTTGTTTGATCAGTATTTATTACTGCTATTTTATTACTTTTATCACTTCCAGTTTTAGCAGGAGCAATTACGATATTATTAACAGATCGAAATCTAAATACATCATTTTTTGATCCAGCAGGAGGAGGAGACCCCATTTTATATCAACACTTATTT</t>
   </si>
   <si>
-    <t>OPG_146_TS04253712_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>34.7%</t>
   </si>
   <si>
@@ -1156,15 +850,9 @@
     <t>GCCGGATAGTAGGTACATCTTTAAGATTAATTATTCGAGCAGAATTAGGACAACCAGGAAGATTAATTCGGAGATGATCAAATTTATAATAGTTGTAGTCACCGCGCATGCATTCGTAATAATTTTTTTCATAGTAATACCTATTATAATTGGAGGATTTGGAAATTGATTAGTGCCCCTAATACTTGGGGCTCCAGATATAGCATTTCCTCGTATAAATAATATAAGATTCTGACTCCTACCTCCCTCGCTAACGCTTTTATTAATAAGAGGAATGGTAGAAAGAGGAGTAGGAACAGGATGAACTGTGTACCCACCACTATCAGCAGCTATTGCCCACGCAGGTGCATCTGTAGATATAGGAATTTTCTCTTTACATTTAGCAGGAGTATCATCTATTTTAGGTGCCGTAAATTTTATAACTACAGTTATTAATATACGACCTATTGGTATAACTATAGACCGTATACCTCTTTTTGTTTGATCAGTATTTATTACTGCTATTTTATTACTTTTATCACTTCCAGTTTTAGCAGGAGCAATTACGATATTATTAACAGATCGAAATCTAAATACATCATTTTTTGATCCAGCAGGAGGAGGAGACCCCATTTTATATCAACACTTATTT</t>
   </si>
   <si>
-    <t>OPG_146_TS04253740_LCO_1490-2.ab1</t>
-  </si>
-  <si>
     <t>ATTATTCGAGCAGAATTAGGACAACCAGGAAGATTAATTGGAGATGATCAAATTTATAATGTTGTAGTCACCGCGCATGCATTCGTAATAATTTTTTTCATAGTAATACCTATTATAATTGGAGGATTTGGAAATTGATTAGTGCCCCTAATACTTGGGGCTCCAGATATAGCATTTCCTCGTATAAATAATATAAGATTCTGACTCCTACCTCCCTCGCTAACGCTTTTATTAATAAGAGGAATGGTAGAAAGAGGAGTAGGAACAGGATGAACTGTGTACCCACCACTATCAGCAGCTATTGCCCACGCAGGTGCATCTGTAGATATAGGAATTTTCTCTTTACATTTAGCAGGAGTATCATCTATTTTAGGTGCCGTAAATTTTATAACTACAGTTATTAATATACGACCTATTGGTATAACTATAGACCGTATACCTCTTTTTGTTTGATCAGTATTTATTACTGCTATTTTATTACTTTTATCACTTCCAGTTTTAGCAGGAGCAATTACGATATTATTAACAGATCGAAATCTAAATACATCATTTTTTGATCCAGCAGGAGGAGGAGACCCCATTTTATATCAACACTTATTT</t>
   </si>
   <si>
-    <t>OPG_147_TS04253741_LCO_1490-2.ab1</t>
-  </si>
-  <si>
     <t>43.2%</t>
   </si>
   <si>
@@ -1174,9 +862,6 @@
     <t>GAGCCGGGATATTAGGCACATCCCTCAGACTATTAATTCGAGCGGAGCTAGGACAACCAGGAAGCCTTATTGGAAATGATCAAATTTATAATGTAATTGTTACCGCCCATGCCTTTATTATGATTTTTTTTATAGTCATACCTATTATAATTGGAGGCTTCGGTAATTGACTGATCCCACTTATATTAGGTGCCCCGGACATAGCCTTCCCCCGGATGAATAACATAAGGTTCTGGCTATTACCACCATCTCTCACGCTACTACTATCTAGAGGAATAGTAGAAAACGGGGTTGGAACAGGATGAACTGTATATCCCCCTCTGTCAACCAATATCGCACATGCAGGGGCCTCGGTGGACCTTGGTATTTTCTCTCTTCACCTGGCAGGAGTCTCTTCGATCCTAGGAGCTATTAACTTTATAACTACTGTTGCTAATATACAACCAGGTGGTGTAACTTTTGACCAACTATCTCTTTTCACCTGATCTGTCTTTCTCACAGCCATTTTACTCCTACTCTCCCTACCAGTCTTAGCGGGAGCAATTACAATGCTTCTTACAGACCGAAACCTCAACACATCTTTCTTTGATCCTGCAGGAGGAGGAGACCCTATTCTCTACCAACACTTATTC</t>
   </si>
   <si>
-    <t>OPG_149_TS04253713_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>36.3%</t>
   </si>
   <si>
@@ -1192,9 +877,6 @@
     <t>LoboF1</t>
   </si>
   <si>
-    <t>31_C.eximia_TS03703250_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>33.1%</t>
   </si>
   <si>
@@ -1207,9 +889,6 @@
     <t>TGCTTTCGCTGGAATGGTTGGTACAGCATTAAGTATGTTAATTAGACTTGAATTAGCTGGGCCAGGAGCTATGTTTGGTGATGATCATTTATATAATGTTATTGTTACAGCTCATGCCTTTGTAATGATTTTCTTTTTAGTCATGCCAGTTTTAATTGGAGGATTTGGTAATTGATTTATTCCTCTTTATATTGGAGCTCCTGATATGGCTTTTCCTAGATTAAATAATTTAAGTTTTTGGTTATTACCTCCTGCTTTATTATTATTATTAGGATCTTCATTAATTGAACAAGGTGCAGGAACTGGGTGAACAGTTTATCCTCCCTTATCAGGACCTCAAACACATTCAGGAGGTTCAGTTGATATGGCTATATTTAGTTTACATTGTGCGGGTGCATCATCTATAATGGGGGCAATTAATTTTATTACAACCATAATTAATATGAGAGCTCCTGGAATGACTATGGATAAAATGCCATTATTTGTATGATCAGTTTTAATAACAGCCGTATTATTATTACTATCTTTACCTGTTTTAGCTGGTGCTATAACTATGTTATTAACAGATAGAAATTTTAACACAACTTTCTTTGATCCTGCTGGAGGTGGTGATCCTGTATTATATCAACATTTATTTTGATTTTTGGTCA</t>
   </si>
   <si>
-    <t>31_Coryne_F_TS03703315_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>33.3%</t>
   </si>
   <si>
@@ -1219,18 +898,12 @@
     <t>TTGGTGCTTTCGCTGGATGGTTGGTACAGCATTAAGTATGTTAATTAGACTTGAATTAGCTGGGCCAGGAGCTATGTTTGGTGATGATCATTTATATAATGTTATTGTTACAGCTCATGCCTTTGTAATGATTTTCTTTTTAGTCATGCCAGTTTTAATTGGAGGATTTGGTAATTGATTTATTCCTCTTTATATTGGAGCTCCTGATATGGCTTTTCCTAGATTAAATAATTTAAGTTTTTGGTTATTACCTCCTGCTTTATTATTATTATTAGGATCTTCATTAATTGAACAAGGTGCAGGAACTGGGTGAACAGTTTATCCTCCCTTATCAGGACCTCAAACACATTCAGGAGGTTCAGTTGATATGGCTATATTTAGTTTACATTGTGCGGGTGCATCATCTATAATGGGGGCAATTAATTTTATTACAACCATAATTAATATGAGAGCTCCTGGAATGACTATGGATAAAATGCCATTATTTGTATGATCAGTTTTAATAACAGCCGTATTATTATTACTATCTTTACCTGTTTTAGCTGGTGCTATAACTATGTTATTAACAGATAGAAATTTTAACACAACTTTCTTTGATCCTGCTGGAGGTGGTGATCCTGTATTATATCAACATTTATTT</t>
   </si>
   <si>
-    <t>31_Coryne_R_TS03703321_HCO_2198.ab1</t>
-  </si>
-  <si>
     <t>33.0%</t>
   </si>
   <si>
     <t>CCTCCAGCAGGATCAAAGAAAGTTGTGTTAAAATTTCTATCTGTTAATAACATAGTTATAGCACCAGCTAAAACAGGTAAAGATAGTAATAATAATACGGCTGTTATTAAAACTGATCATACAAATAATGGCATTTTATCCATAGTCATTCCAGGAGCTCTCATATTAATTATGGTTGTAATAAAATTAATTGCCCCCATTATAGATGATGCACCCGCACAATGTAAACTAAATATAGCCATATCAACTGAACCTCCTGAATGTGTTTGAGGTCCTGATAAGGGAGGATAAACTGTTCACCCAGTTCCTGCACCTTGTTCAATTAATGAAGATCCTAATAATAATAATAAAGCAGGAGGTAATAACCAAAAACTTAAATTATTTAATCTAGGAAAAGCCATATCAGGAGCTCCAATATAAAGAGGAATAAATCAATTACCAAATCCTCCAATTAAAACTGGCATGACTAAAAAGAAAATCATTACAAAGGCATGAGCTGTAACAATAACATTATATAAATGATCATCACCAAACATAGCTCCTGGCCCAGCTAATTCAAGTCTAATTAACATACTTAATGCTGTACCAACCATTCCAGCGAAAGCACCAAATACTAAATATAAAGTA</t>
   </si>
   <si>
-    <t>32_C.eximia_TS03703251_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>33.2%</t>
   </si>
   <si>
@@ -1240,24 +913,15 @@
     <t>TATTTGGGTGCTTTCGCTGGAATGGTTGGTACAGCATTAAGTATGTTAATTAGACTTGAATTAGCTGGACCAGGAGCTATGTTCGGTGATGATCATTTATATAATGTTATTGTTACAGCTCATGCCTTTGTAATGATTTTCTTTTTAGTCATGCCAGTTTTAATTGGAGGATTTGGTAATTGATTTATTCCTCTTTATATTGGAGCTCCTGATATGGCTTTTCCTAGATTAAATAATTTAAGTTTTTGGTTATTACCTCCTGCTTTATTATTATTATTAGGATCTTCATTAATTGAACAAGGTGCAGGAACTGGGTGAACAGTTTATCCTCCCTTATCAGGACCTCAAACACATTCAGGAGGTTCAGTTGATATGGCTATATTTAGTTTACATTGTGCGGGTGCATCATCTATAATGGGGGCAATTAATTTTATTACAACCATAATTAATATGAGAGCTCCTGGAATGACTATGGATAAAATGCCATTATTTGTATGATCAGTTTTAATAACAGCCGTATTATTATTACTATCTTTACCTGTTTTAGCTGGTGCTATAACTATGTTATTAACAGATAGAAATTTTAACACAACTTTCTTTGATCCTGCTGGAGGTGGTGATCCTGTATTATATCAACATTTATTT</t>
   </si>
   <si>
-    <t>32_Coryne_F_TS03703316_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>33.4%</t>
   </si>
   <si>
     <t>GGTGCTTTCGCTGGATGGTTGGTACAGCATTAAGTATGTTAATTAGACTTGAATTAGCTGGACCAGGAGCTATGTTCGGTGATGATCATTTATATAATGTTATTGTTACAGCTCATGCCTTTGTAATGATTTTCTTTTTAGTCATGCCAGTTTTAATTGGAGGATTTGGTAATTGATTTATTCCTCTTTATATTGGAGCTCCTGATATGGCTTTTCCTAGATTAAATAATTTAAGTTTTTGGTTATTACCTCCTGCTTTATTATTATTATTAGGATCTTCATTAATTGAACAAGGTGCAGGAACTGGGTGAACAGTTTATCCTCCCTTATCAGGACCTCAAACACATTCAGGAGGTTCAGTTGATATGGCTATATTTAGTTTACATTGTGCGGGTGCATCATCTATAATGGGGGCAATTAATTTTATTACAACCATAATTAATATGAGAGCTCCTGGAATGACTATGGATAAAATGCCATTATTTGTATGATCAGTTTTAATAACAGCCGTATTATTATTACTATCTTTACCTGTTTTAGCTGGTGCTATAACTATGTTATTAACAGATAGAAATTTTAACACAACTTTCTTTGATCCTGCTGGAGGTGGTGATCCTGTATTATATCAACATTTATTT</t>
   </si>
   <si>
-    <t>32_Coryne_R_TS03703322_HCO_2198.ab1</t>
-  </si>
-  <si>
     <t>CCACCTCCAGCAGGATCAAAGAAAGTTGTGTTAAAATTTCTATCTGTTAATAACATAGTTATAGCACCAGCTAAAACAGGTAAAGATAGTAATAATAATACGGCTGTTATTAAAACTGATCATACAAATAATGGCATTTTATCCATAGTCATTCCAGGAGCTCTCATATTAATTATGGTTGTAATAAAATTAATTGCCCCCATTATAGATGATGCACCCGCACAATGTAAACTAAATATAGCCATATCAACTGAACCTCCTGAATGTGTTTGAGGTCCTGATAAGGGAGGATAAACTGTTCACCCAGTTCCTGCACCTTGTTCAATTAATGAAGATCCTAATAATAATAATAAAGCAGGAGGTAATAACCAAAAACTTAAATTATTTAATCTAGGAAAAGCCATATCAGGAGCTCCAATATAAAGAGGAATAAATCAATTACCAAATCCTCCAATTAAAACTGGCATGACTAAAAAGAAAATCATTACAAAGGCATGAGCTGTAACAATAACATTATATAAATGATCATCACCGAACATAGCTCCTGGTCCAGCTAATTCAAGTCTAATTAACATACTTAATGCTGTACCAACCATTCCAGCGAAAGCACCAAATACTAAATATAAAGTA</t>
   </si>
   <si>
-    <t>OPG_090_TS04242482_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>32.9%</t>
   </si>
   <si>
@@ -1270,9 +934,6 @@
     <t>TTTTCAGGTATGGTAGGTACTGCATTAAGTATGTTAATCAGATTAGAATTAGCAGGACCAGGTGCTATGTTTGGAGATGATCATTTATATAATGTCATAGTCACTGCACATGCTTTTGTCATGATTTTCTTTTTAGTAATGCCAGTCTTAATTGGAGGATTTGGTAATTGATTAATACCATTATACATAGGAGCACCGGATATGGCATTTCCTAGATTAAATAATTTAAGTTTTTGGTTATTACCACCTGCATTATTATTATTATTAGGTTCTTCTTTAGTTGAACAAGGAGCAGGGACAGGATGAACTGTATACCCTCCTTTATCAGGAGCTCAAACTCATTCAGGAGGATCTGTCGATATGGCAATATTTAGTTTACATTGTGCAGGTGCTTCATCTATTATGGGAGCAATAAATTTTATTACTACTATTTTCAATATGAGAGCACCTGGATTAACTTTAGATAGATTACCATTATTTGTCTGATCTGTTTTAATAACAGCATTCTTGTTATTATTATCACTACCAGTTTTGGCAGGTGCAATAACTATGTTATTAACAGATAGAAATTTTAATACTACATTTTTTGATCCTGCAGGAGGAGGTGATCCTGTTTTATATCAACATCTATTT</t>
   </si>
   <si>
-    <t>OPG_091_TS04242483_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>96.4%</t>
   </si>
   <si>
@@ -1282,51 +943,33 @@
     <t>CGGTGCATTTTCAGGATGGTAGGAACAGCATTAAGTATGTTAATTAGATTAGAATTAGCAGGGCCGGGTGCTATGTTCGGAGATGATCACTTATATAATGTAATAGTAACTGCCCATGCTTTTGTTATGATTTTCTTCTTAGTAATGCCAGTTTTAATTGGGGGTTTCGGTAATTGATTAATACCTTTATATATAGGAGCACCTGATATGGCATTTCCTAGGTTAAATAACCTAAGTTTTTGGTTACTTCCACCAGCATTATTATTATTATTAGGGTCTTCTTTAGTAGAACAAGGAGCAGGTACTGGTTGAACAGTTTACCCTCCTTTATCAGGACCTCAAACACATTCAGGAGGATCAGTAGATATGGTAATTTTTAGTTTACATTGTGCAGGTGCTTCATCTATTATGGGTGCCATAAATTTTATTACAACAATATTTAATATGAGAGCCCCTGGCTTAACTTTAGATAAGTTACCATTATTTGTTTGGTCAGTCTTAATTACTGCCTTTTTATTACTTTTATCTTTACCTGTGTTAGCTGGAGCTATTACGATGTTACTTACAGATAGAAATTTTAATACAACATTCTTTGATCCAGCAGGTGGAGGTGATCCAGTATTGTACCAACATTTATTT</t>
   </si>
   <si>
-    <t>OPG_092_TS04242484_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>CGCATTTTCAGGAATGGTAGGAACAGCATTAAGTATGTTAATTAGATTAGAATTAGCAGGGCCGGGTGCTATGTTCGGAGATGATCACTTATATAATGTAATAGTAACTGCCCATGCTTTTGTTATGATTTTCTTCTTAGTAATGCCAGTTTTAATTGGGGGTTTCGGTAATTGGTTAATACCTTTATACATAGGAGCACCTGATATGGCATTTCCTAGGTTAAATAACCTAAGTTTTTGGTTACTTCCACCAGCATTATTATTATTATTAGGGTCTTCTTTAGTAGAACAAGGAGCAGGTACTGGTTGAACAGTTTACCCTCCTTTATCAGGACCTCAAACACATTCGGGAGGATCAGTAGATATGGCAATTTTTAGTTTACATTGTGCAGGTGCTTCATCTATTATGGGTGCCATAAATTTTATTACAACAATATTTAATATGAGAGCCCCTGGCTTAACTTTAGATAAGTTACCATTATTTGTTTGGTCAGTCTTGATTACTGCCTTTTTATTACTTTTATCTTTACCTGTATTAGCTGGAGCTATTACGATGTTACTTACAGATAGAAATTTTAATACAACATTCTTTGATCCAGCAGGTGGAGGTGATCCAGTATTATA</t>
   </si>
   <si>
-    <t>OPG_093_TS04242485_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>32.8%</t>
   </si>
   <si>
     <t>TGGAGCATTTTCAGGTATGGTAGGTACTGCATTAAGTATGTTAATCAGATTAGAATTAGCAGGACCAGGTGCTATGTTTGGAGATGATCATTTATATAATGTCATAGTCACTGCACATGCTTTTGTCATGATTTTCTTTTTAGTAATGCCAGTCTTAATTGGAGGATTTGGTAATTGATTAATACCATTATACATAGGAGCACCAGATATGGCATTTCCTAGATTAAATAATTTAAGTTTTTGGTTATTACCACCTGCATTATTATTATTATTAGGTTCTTCTTTAGTTGAACAAGGAGCAGGAACAGGATGAACTGTATACCCTCCTCTATCAGGAGCTCAAACTCATTCAGGAGGATCTGTCGATATGGCAATATTTAGTTTACATTGTGCAGGTGCTTCATCTATTATGGGAGCAATAAATTTTATTACTACTATTTTCAATATGAGAGCACCTGGATTAACTTTAGATAGATTACCATTATTTGTCTGATCTGTTTTAATAACAGCATTCTTGTTATTATTATCACTACCAGTTTTAGCAGGTGCAATAACTATGTTATTAACAGATAGAAATTTTAATACTACATTTTTTGATCCTGCAGGAGGAGGTGATCCTGTTTTATATCAACATCTATTT</t>
   </si>
   <si>
-    <t>OPG_113_TS04253716_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>Clytia elsaeoswaldae</t>
   </si>
   <si>
     <t>GCATTAAGTATGTTAATTAGATTAGAATTAGCAGGACCGGGTGCTATGTTCGGAGATGATCACTTATATAATGTAATAGTAACTGCCCATGCTTTTGTTATGATTTTCTTCTTAGTAATGCCAGTTTTAATTGGGGGTTTCGGTAATTGATTAGTACCTTTATATATAGGAGCACCCGATATGGCATTTCCTAGGTTAAATAACCTAAGTTTTTGGTTACTTCCACCAGCATTATTATTATTATTAGGGTCTTCTTTAGTAGAACAAGGAGCAGGTACTGGTTGAACAGTTTACCCTCCTTTATCAGGACCTCAAACGCATTCAGGAGGGTCAGTAGATATGGCAATTTTTAGTTTACATTGTGCAGGTGCTTCATCTATTATGGGTGCCATAAATTTTATTACAACAATATTTAATATGAGAGCTCCTGGCTTGACTTTAGATAAATTACCATTATTTGTTTGGTCAGTCTTAATTACTGCCTTTTTATTACTTTTATCTTTACCTGTGTTAGCTGGAGCTATTACGATGTTACTTACAGATAGAAATTTTAACACAACATTCTTTGATCCAGCAGGTGGAGGTGATCCAGTATTATA</t>
   </si>
   <si>
-    <t>OPG_113_TS04253720_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>95.8%</t>
   </si>
   <si>
     <t>GGATGGTAGGAACAGCATTAAGTATGTTAATTAGATTAGAATTAGCAGGACCGGGTGCTATGTTCGGAGATGATCACTTATATAATGTAATAGTAACTGCCCATGCTTTTGTTATGATTTTCTTCTTAGTAATGCCAGTTTTAATTGGGGGTTTCGGTAATTGATTAGTACCTTTATATATAGGAGCACCCGATATGGCATTTCCTAGGTTAAATAACCTAAGTTTTTGGTTACTTCCACCAGCATTATTATTATTATTAGGGTCTTCTTTAGTAGAACAAGGAGCAGGTACTGGTTGAACAGTTTACCCTCCTTTATCAGGACCTCAAACGCATTCAGGAGGGTCAGTAGATATGGCAATTTTTAGTTTACATTGTGCAGGTGCTTCATCTATTATGGGTGCCATAAATTTTATTACAACAATATTTAATATGAGAGCTCCTGGCTTGACTTTAGATAAATTACCATTATTTGTTTGGTCAGTCTTAATTACTGCCTTTTTATTACTTTTATCTTTACCTGTGTTAGCTGGAGCTATTACGATGTTACTTACAGATAGAAATTTTAACACAACATTCTTTGATCCAGCAGGTGGAGGTGATCCAGTATTATA</t>
   </si>
   <si>
-    <t>OPG_115_TS04242499_LCO1490.ab1</t>
-  </si>
-  <si>
     <t>Stauridiosarsia gemmifera</t>
   </si>
   <si>
     <t>TCGGAGCGTTTTCAGGATGGTAGGTACAGCTTTAAGTATGTTAATAAGATTAGAACTAGCAGGGCCAGGGGCCATGTTTGGTGATGATCATTTATACAATGTTATAGTTACAGCCCATGCCCTTATCATGATTTTTTTCTTAGTTATGCCTGTTTTGATTGGAGGTTTCGGTAATTGATTTATTCCTTTATATATTGGAGCACCTGATATGGCATTCCCAAGACTTAATAATTTAAGTTTTTGATTATTACCTCCCGCGTTGTTCTTATTATTGGGTTCCTCTTTAATCGAACAAGGAGCAGGTACAGGATGAACCATGTATCCTCCCTTATCTGGGCCTCAGACCCATTCTGGAGGTTCTGTTGATTTAGCTATATTTAGTTTACACTGTGCGGGTGCCTCCTCCATTATGGGGGCTATTAATTTTATTACTACTATCTTAAATATGAGAGCCCCAGGAATGACAATGGACAAAATCCCTCTGTTTGTTTGGTCCGTTTTAATTACAGCTATCTTATTACTATTGTCTTTACCTGTATTAGCAGGGGCCATTACGATGTTATTGACGGACAGAAATTTTAATACTACATTCTTTGACCCAGCAGGGGGGGGTGACCCTATTCTATTTCAACACCTGTTT</t>
   </si>
   <si>
-    <t>OPG_115_TS04253721_LCO_1490.ab1</t>
-  </si>
-  <si>
     <t>38.5%</t>
   </si>
   <si>
@@ -1412,6 +1055,363 @@
   </si>
   <si>
     <t>Porcellana platycheles</t>
+  </si>
+  <si>
+    <t>TS04253722</t>
+  </si>
+  <si>
+    <t>TS04242451</t>
+  </si>
+  <si>
+    <t>TS04242452</t>
+  </si>
+  <si>
+    <t>TS04242453</t>
+  </si>
+  <si>
+    <t>TS04242454</t>
+  </si>
+  <si>
+    <t>TS04242455</t>
+  </si>
+  <si>
+    <t>TS04242456</t>
+  </si>
+  <si>
+    <t>TS04242457</t>
+  </si>
+  <si>
+    <t>TS04242458</t>
+  </si>
+  <si>
+    <t>TS04253714</t>
+  </si>
+  <si>
+    <t>TS04253723</t>
+  </si>
+  <si>
+    <t>TS03703274</t>
+  </si>
+  <si>
+    <t>TS04253721</t>
+  </si>
+  <si>
+    <t>TS04242499</t>
+  </si>
+  <si>
+    <t>TS04253720</t>
+  </si>
+  <si>
+    <t>TS04253716</t>
+  </si>
+  <si>
+    <t>TS04242482</t>
+  </si>
+  <si>
+    <t>TS04242483</t>
+  </si>
+  <si>
+    <t>TS04242484</t>
+  </si>
+  <si>
+    <t>TS04242485</t>
+  </si>
+  <si>
+    <t>TS03703322</t>
+  </si>
+  <si>
+    <t>TS03703316</t>
+  </si>
+  <si>
+    <t>TS03703251</t>
+  </si>
+  <si>
+    <t>TS03703321</t>
+  </si>
+  <si>
+    <t>TS03703315</t>
+  </si>
+  <si>
+    <t>TS03703250</t>
+  </si>
+  <si>
+    <t>TS04253704</t>
+  </si>
+  <si>
+    <t>TS04253705</t>
+  </si>
+  <si>
+    <t>TS04253706</t>
+  </si>
+  <si>
+    <t>TS04253707</t>
+  </si>
+  <si>
+    <t>TS04253708</t>
+  </si>
+  <si>
+    <t>TS04253709</t>
+  </si>
+  <si>
+    <t>TS04253710</t>
+  </si>
+  <si>
+    <t>TS04253711</t>
+  </si>
+  <si>
+    <t>TS04253712</t>
+  </si>
+  <si>
+    <t>TS04253740</t>
+  </si>
+  <si>
+    <t>TS04253713</t>
+  </si>
+  <si>
+    <t>TS04253741</t>
+  </si>
+  <si>
+    <t>TS03703290</t>
+  </si>
+  <si>
+    <t>TS03703291</t>
+  </si>
+  <si>
+    <t>TS03703292</t>
+  </si>
+  <si>
+    <t>TS03703293</t>
+  </si>
+  <si>
+    <t>TS03703294</t>
+  </si>
+  <si>
+    <t>TS03703295</t>
+  </si>
+  <si>
+    <t>TS03703296</t>
+  </si>
+  <si>
+    <t>TS03703298</t>
+  </si>
+  <si>
+    <t>TS03703299</t>
+  </si>
+  <si>
+    <t>TS04253734</t>
+  </si>
+  <si>
+    <t>TS04253735</t>
+  </si>
+  <si>
+    <t>TS04242500</t>
+  </si>
+  <si>
+    <t>TS04253739</t>
+  </si>
+  <si>
+    <t>TS04253715</t>
+  </si>
+  <si>
+    <t>TS04253724</t>
+  </si>
+  <si>
+    <t>TS04242495</t>
+  </si>
+  <si>
+    <t>TS04242496</t>
+  </si>
+  <si>
+    <t>TS03703275</t>
+  </si>
+  <si>
+    <t>TS04253727</t>
+  </si>
+  <si>
+    <t>TS03703276</t>
+  </si>
+  <si>
+    <t>TS03703318</t>
+  </si>
+  <si>
+    <t>TS03703306</t>
+  </si>
+  <si>
+    <t>TS03703319</t>
+  </si>
+  <si>
+    <t>TS03703307</t>
+  </si>
+  <si>
+    <t>TS03703246</t>
+  </si>
+  <si>
+    <t>TS03703247</t>
+  </si>
+  <si>
+    <t>TS03703320</t>
+  </si>
+  <si>
+    <t>TS04253729</t>
+  </si>
+  <si>
+    <t>TS03703309</t>
+  </si>
+  <si>
+    <t>TS03703248</t>
+  </si>
+  <si>
+    <t>TS03703249</t>
+  </si>
+  <si>
+    <t>TS04253732</t>
+  </si>
+  <si>
+    <t>TS03703277</t>
+  </si>
+  <si>
+    <t>TS03703311</t>
+  </si>
+  <si>
+    <t>TS03703312</t>
+  </si>
+  <si>
+    <t>TS03703281</t>
+  </si>
+  <si>
+    <t>TS03703282</t>
+  </si>
+  <si>
+    <t>TS03703283</t>
+  </si>
+  <si>
+    <t>TS03703284</t>
+  </si>
+  <si>
+    <t>TS03703286</t>
+  </si>
+  <si>
+    <t>TS03703287</t>
+  </si>
+  <si>
+    <t>TS03703310</t>
+  </si>
+  <si>
+    <t>TS04253733</t>
+  </si>
+  <si>
+    <t>TS04253718</t>
+  </si>
+  <si>
+    <t>TS04242490</t>
+  </si>
+  <si>
+    <t>TS04242491</t>
+  </si>
+  <si>
+    <t>TS04242492</t>
+  </si>
+  <si>
+    <t>TS04242493</t>
+  </si>
+  <si>
+    <t>TS04242494</t>
+  </si>
+  <si>
+    <t>TS04242480</t>
+  </si>
+  <si>
+    <t>TS04242489</t>
+  </si>
+  <si>
+    <t>TS04242486</t>
+  </si>
+  <si>
+    <t>TS04242487</t>
+  </si>
+  <si>
+    <t>TS04242478</t>
+  </si>
+  <si>
+    <t>TS04242477</t>
+  </si>
+  <si>
+    <t>TS04242479</t>
+  </si>
+  <si>
+    <t>TS04242474</t>
+  </si>
+  <si>
+    <t>TS04242475</t>
+  </si>
+  <si>
+    <t>TS04242476</t>
+  </si>
+  <si>
+    <t>TS04242470</t>
+  </si>
+  <si>
+    <t>TS04242471</t>
+  </si>
+  <si>
+    <t>TS04242472</t>
+  </si>
+  <si>
+    <t>TS04242473</t>
+  </si>
+  <si>
+    <t>TS04242464</t>
+  </si>
+  <si>
+    <t>TS04242459</t>
+  </si>
+  <si>
+    <t>TS04242460</t>
+  </si>
+  <si>
+    <t>TS04242461</t>
+  </si>
+  <si>
+    <t>TS04242465</t>
+  </si>
+  <si>
+    <t>TS04242462</t>
+  </si>
+  <si>
+    <t>TS04242466</t>
+  </si>
+  <si>
+    <t>TS04242463</t>
+  </si>
+  <si>
+    <t>TS04242467</t>
+  </si>
+  <si>
+    <t>TS04242468</t>
+  </si>
+  <si>
+    <t>TS04242469</t>
+  </si>
+  <si>
+    <t>TS03703288</t>
+  </si>
+  <si>
+    <t>TS03703289</t>
+  </si>
+  <si>
+    <t>TS03703272</t>
+  </si>
+  <si>
+    <t>TS03703273</t>
+  </si>
+  <si>
+    <t>TS04253726</t>
+  </si>
+  <si>
+    <t>TS03703323</t>
+  </si>
+  <si>
+    <t>TS03703317</t>
   </si>
 </sst>
 </file>
@@ -1912,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,3482 +1927,3482 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>444</v>
+        <v>325</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>438</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G2" s="3">
         <v>610</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G3" s="2">
         <v>624</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="G4" s="2">
         <v>630</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G5" s="2">
         <v>633</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>445</v>
+        <v>326</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2">
         <v>637</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
+      <c r="A7" s="3" t="s">
+        <v>350</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>445</v>
+        <v>326</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2">
         <v>604</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
+      <c r="A8" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>445</v>
+        <v>326</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2">
         <v>629</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
+      <c r="A9" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>445</v>
+        <v>326</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2">
         <v>624</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
+      <c r="A10" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>445</v>
+        <v>326</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2">
         <v>637</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
+      <c r="A11" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>445</v>
+        <v>326</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2">
         <v>610</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
+      <c r="A12" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>445</v>
+        <v>326</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2">
         <v>639</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>356</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G13" s="2">
         <v>638</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>442</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2">
         <v>654</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>442</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>401</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G15" s="2">
         <v>624</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>442</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>68</v>
+        <v>402</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2">
         <v>638</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>442</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>71</v>
+        <v>403</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G17" s="2">
         <v>629</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>76</v>
+        <v>404</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2">
         <v>635</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G19" s="2">
         <v>630</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>84</v>
+        <v>406</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G20" s="2">
         <v>635</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>86</v>
+        <v>407</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G21" s="2">
         <v>640</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>90</v>
+        <v>408</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G22" s="2">
         <v>639</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>93</v>
+        <v>409</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="G23" s="2">
         <v>627</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>97</v>
+        <v>410</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>446</v>
+        <v>327</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>446</v>
+        <v>327</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="G24" s="2">
         <v>621</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>101</v>
+        <v>411</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>446</v>
+        <v>327</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>446</v>
+        <v>327</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="G25" s="2">
         <v>627</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>105</v>
+        <v>412</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>446</v>
+        <v>327</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>446</v>
+        <v>327</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="G26" s="2">
         <v>621</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>109</v>
+        <v>413</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>446</v>
+        <v>327</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>446</v>
+        <v>327</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G27" s="2">
         <v>645</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>446</v>
+        <v>327</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>446</v>
+        <v>327</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G28" s="2">
         <v>619</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>115</v>
+        <v>415</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>446</v>
+        <v>327</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>446</v>
+        <v>327</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="G29" s="2">
         <v>639</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>119</v>
+        <v>416</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="G30" s="2">
         <v>469</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>124</v>
+        <v>417</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="G31" s="2">
         <v>469</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>126</v>
+        <v>418</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="G32" s="2">
         <v>647</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>131</v>
+        <v>419</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="G33" s="2">
         <v>640</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>135</v>
+        <v>420</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="G34" s="2">
         <v>655</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="G35" s="2">
         <v>642</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>140</v>
+        <v>422</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G36" s="2">
         <v>641</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>144</v>
+      <c r="A37" t="s">
+        <v>424</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="G37" s="2">
         <v>617</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>148</v>
+        <v>423</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="G38" s="2">
         <v>642</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>152</v>
+        <v>425</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="G39" s="2">
         <v>630</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>156</v>
+        <v>426</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="G40" s="2">
         <v>616</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>160</v>
+        <v>457</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="G41" s="2">
         <v>624</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>164</v>
+        <v>458</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="G42" s="2">
         <v>618</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>167</v>
+        <v>459</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>449</v>
+        <v>330</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="G43" s="2">
         <v>642</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>172</v>
+        <v>460</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="G44" s="2">
         <v>642</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>175</v>
+        <v>461</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>450</v>
+        <v>331</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="G45" s="2">
         <v>635</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>180</v>
+        <v>462</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="G46" s="2">
         <v>902</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>185</v>
+        <v>463</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="G47" s="2">
         <v>638</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>189</v>
+        <v>442</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="G48" s="2">
         <v>624</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>192</v>
+        <v>443</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G49" s="2">
         <v>635</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>194</v>
+        <v>444</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="G50" s="2">
         <v>624</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>196</v>
+        <v>445</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="G51" s="2">
         <v>624</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>198</v>
+        <v>446</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="G52" s="2">
         <v>469</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>202</v>
+        <v>447</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>448</v>
+        <v>329</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="G53" s="2">
         <v>469</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>205</v>
+        <v>448</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>448</v>
+        <v>329</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="G54" s="2">
         <v>469</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>207</v>
+        <v>450</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="G55" s="2">
         <v>469</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>209</v>
+        <v>449</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>448</v>
+        <v>329</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="G56" s="2">
         <v>469</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>213</v>
+        <v>451</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>448</v>
+        <v>329</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="G57" s="2">
         <v>469</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>215</v>
+        <v>452</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="G58" s="2">
         <v>469</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>216</v>
+        <v>453</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>448</v>
+        <v>329</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="G59" s="2">
         <v>469</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>218</v>
+        <v>454</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="G60" s="2">
         <v>469</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>220</v>
+        <v>455</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="G61" s="2">
         <v>469</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>222</v>
+        <v>456</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="G62" s="2">
         <v>469</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>306</v>
+        <v>222</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>224</v>
+        <v>439</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="G63" s="2">
         <v>616</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>226</v>
+        <v>440</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
       <c r="G64" s="2">
         <v>637</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>229</v>
+        <v>441</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="G65" s="2">
         <v>641</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>231</v>
+        <v>437</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="G66" s="2">
         <v>639</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>234</v>
+        <v>438</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="G67" s="2">
         <v>633</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>237</v>
+        <v>436</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="G68" s="2">
         <v>710</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>241</v>
+        <v>434</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="G69" s="2">
         <v>616</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>245</v>
+        <v>435</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="G70" s="2">
         <v>635</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>249</v>
+        <v>427</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>253</v>
+        <v>183</v>
       </c>
       <c r="G71" s="2">
         <v>630</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>254</v>
+        <v>428</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>451</v>
+        <v>332</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="G72" s="2">
         <v>629</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>259</v>
+        <v>429</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>451</v>
+        <v>332</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="G73" s="2">
         <v>638</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>263</v>
+        <v>430</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>452</v>
+        <v>333</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="G74" s="2">
         <v>638</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>264</v>
+        <v>431</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>450</v>
+        <v>331</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="G75" s="2">
         <v>629</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>266</v>
+        <v>432</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>453</v>
+        <v>334</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="G76" s="2">
         <v>643</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>270</v>
+        <v>433</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>454</v>
+        <v>335</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="G77" s="2">
         <v>627</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>273</v>
+        <v>398</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>456</v>
+        <v>337</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>275</v>
+        <v>198</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>277</v>
+        <v>200</v>
       </c>
       <c r="G78" s="2">
         <v>637</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>278</v>
+        <v>399</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>455</v>
+        <v>336</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>281</v>
+        <v>203</v>
       </c>
       <c r="G79" s="2">
         <v>634</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>282</v>
+        <v>397</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>453</v>
+        <v>334</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="G80" s="2">
         <v>581</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>285</v>
+        <v>396</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>453</v>
+        <v>334</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>286</v>
+        <v>206</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c r="G81" s="2">
         <v>634</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>289</v>
+        <v>395</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>453</v>
+        <v>334</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>290</v>
+        <v>209</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="G82" s="2">
         <v>635</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>292</v>
+        <v>394</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>293</v>
+        <v>211</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="G83" s="2">
         <v>904</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>297</v>
+        <v>392</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>300</v>
+        <v>217</v>
       </c>
       <c r="G84" s="2">
         <v>901</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>301</v>
+        <v>393</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c r="G85" s="2">
         <v>901</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>440</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>308</v>
+        <v>383</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>463</v>
+        <v>344</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="G86" s="2">
         <v>640</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>313</v>
+        <v>384</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>314</v>
+        <v>228</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>315</v>
+        <v>229</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>316</v>
+        <v>230</v>
       </c>
       <c r="G87" s="2">
         <v>640</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>317</v>
+        <v>385</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>318</v>
+        <v>231</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>319</v>
+        <v>232</v>
       </c>
       <c r="G88" s="2">
         <v>639</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>463</v>
+        <v>344</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="G89" s="2">
         <v>643</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>323</v>
+        <v>387</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>324</v>
+        <v>235</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="G90" s="2">
         <v>643</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>326</v>
+        <v>388</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>327</v>
+        <v>237</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="G91" s="2">
         <v>640</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>329</v>
+        <v>389</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>463</v>
+        <v>344</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>330</v>
+        <v>239</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>331</v>
+        <v>240</v>
       </c>
       <c r="G92" s="2">
         <v>640</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>463</v>
+        <v>344</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>333</v>
+        <v>241</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="G93" s="2">
         <v>640</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>463</v>
+        <v>344</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>338</v>
+        <v>245</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="G94" s="2">
         <v>642</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>457</v>
+        <v>338</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>342</v>
+        <v>248</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>343</v>
+        <v>249</v>
       </c>
       <c r="G95" s="2">
         <v>642</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>458</v>
+        <v>339</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>345</v>
+        <v>250</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>346</v>
+        <v>251</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>347</v>
+        <v>252</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>348</v>
+        <v>253</v>
       </c>
       <c r="G96" s="2">
         <v>606</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>458</v>
+        <v>339</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>345</v>
+        <v>250</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>350</v>
+        <v>254</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>347</v>
+        <v>252</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>351</v>
+        <v>255</v>
       </c>
       <c r="G97" s="2">
         <v>624</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>353</v>
+        <v>256</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>354</v>
+        <v>257</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>355</v>
+        <v>258</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>356</v>
+        <v>259</v>
       </c>
       <c r="G98" s="2">
         <v>633</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>359</v>
+        <v>261</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>360</v>
+        <v>262</v>
       </c>
       <c r="G99" s="2">
         <v>632</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>362</v>
+        <v>263</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>363</v>
+        <v>264</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>365</v>
+        <v>266</v>
       </c>
       <c r="G100" s="2">
         <v>630</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>461</v>
+        <v>342</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="G101" s="2">
         <v>630</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>461</v>
+        <v>342</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>371</v>
+        <v>270</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>372</v>
+        <v>271</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>373</v>
+        <v>272</v>
       </c>
       <c r="G102" s="2">
         <v>629</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>461</v>
+        <v>342</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>375</v>
+        <v>273</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>376</v>
+        <v>274</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>377</v>
+        <v>275</v>
       </c>
       <c r="G103" s="2">
         <v>631</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>461</v>
+        <v>342</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>371</v>
+        <v>270</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>379</v>
+        <v>276</v>
       </c>
       <c r="G104" s="2">
         <v>600</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>460</v>
+        <v>341</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>381</v>
+        <v>277</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>382</v>
+        <v>278</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>383</v>
+        <v>279</v>
       </c>
       <c r="G105" s="2">
         <v>632</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>460</v>
+        <v>341</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>385</v>
+        <v>280</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>386</v>
+        <v>281</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>387</v>
+        <v>282</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>388</v>
+        <v>283</v>
       </c>
       <c r="G106" s="2">
         <v>617</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>393</v>
+        <v>287</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>391</v>
+        <v>285</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>392</v>
+        <v>286</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>393</v>
+        <v>287</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>394</v>
+        <v>288</v>
       </c>
       <c r="G107" s="2">
         <v>650</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>393</v>
+        <v>287</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>396</v>
+        <v>289</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>397</v>
+        <v>290</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>393</v>
+        <v>287</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>398</v>
+        <v>291</v>
       </c>
       <c r="G108" s="2">
         <v>640</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>393</v>
+        <v>287</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>400</v>
+        <v>292</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>393</v>
+        <v>287</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>401</v>
+        <v>293</v>
       </c>
       <c r="G109" s="2">
         <v>627</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>393</v>
+        <v>287</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>403</v>
+        <v>294</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>404</v>
+        <v>295</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>393</v>
+        <v>287</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>405</v>
+        <v>296</v>
       </c>
       <c r="G110" s="2">
         <v>645</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>393</v>
+        <v>287</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>407</v>
+        <v>297</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>392</v>
+        <v>286</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>393</v>
+        <v>287</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>408</v>
+        <v>298</v>
       </c>
       <c r="G111" s="2">
         <v>638</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>393</v>
+        <v>287</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>403</v>
+        <v>294</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>393</v>
+        <v>287</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>410</v>
+        <v>299</v>
       </c>
       <c r="G112" s="2">
         <v>630</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>414</v>
+        <v>302</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>412</v>
+        <v>300</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>413</v>
+        <v>301</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>414</v>
+        <v>302</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>415</v>
+        <v>303</v>
       </c>
       <c r="G113" s="2">
         <v>633</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>414</v>
+        <v>302</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>375</v>
+        <v>273</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>417</v>
+        <v>304</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>418</v>
+        <v>305</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>419</v>
+        <v>306</v>
       </c>
       <c r="G114" s="2">
         <v>639</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>462</v>
+        <v>343</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>418</v>
+        <v>305</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>421</v>
+        <v>307</v>
       </c>
       <c r="G115" s="2">
         <v>624</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>422</v>
+        <v>364</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>462</v>
+        <v>343</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>423</v>
+        <v>308</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>414</v>
+        <v>302</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>424</v>
+        <v>309</v>
       </c>
       <c r="G116" s="2">
         <v>640</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>425</v>
+        <v>360</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>447</v>
+        <v>328</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>426</v>
+        <v>310</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>427</v>
+        <v>311</v>
       </c>
       <c r="G117" s="2">
         <v>599</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>428</v>
+        <v>359</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>447</v>
+        <v>328</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>362</v>
+        <v>263</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>429</v>
+        <v>312</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>426</v>
+        <v>310</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>430</v>
+        <v>313</v>
       </c>
       <c r="G118" s="2">
         <v>613</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>431</v>
+        <v>358</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>432</v>
+        <v>314</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>432</v>
+        <v>314</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>433</v>
+        <v>315</v>
       </c>
       <c r="G119" s="2">
         <v>640</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>432</v>
+        <v>314</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>435</v>
+        <v>316</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>436</v>
+        <v>317</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>432</v>
+        <v>314</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>437</v>
+        <v>318</v>
       </c>
       <c r="G120" s="2">
         <v>620</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>441</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
